--- a/analyses/4a_metal_industry_analysis.xlsx
+++ b/analyses/4a_metal_industry_analysis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="22240" tabRatio="835" activeTab="6"/>
+    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="15500" tabRatio="835" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Sheet" sheetId="34" r:id="rId1"/>
@@ -211,7 +211,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1114" uniqueCount="616">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1115" uniqueCount="617">
   <si>
     <t>Changelog</t>
   </si>
@@ -2089,6 +2089,9 @@
   </si>
   <si>
     <t>Minor layout improvements. Improved dataflow. Improved checks if steel production = 0 or when there is no cokes production.</t>
+  </si>
+  <si>
+    <t>Updated cokes demand sheet to make sure that the calculated cokes production is based on the cokes demand for steel production</t>
   </si>
 </sst>
 </file>
@@ -5869,24 +5872,160 @@
     <xf numFmtId="0" fontId="25" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -5905,15 +6044,9 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -5932,136 +6065,6 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1555">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -7620,7 +7623,7 @@
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
     <cellStyle name="Percent 2" xfId="772"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="23">
     <dxf>
       <font>
         <b/>
@@ -7748,16 +7751,6 @@
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCFFCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -12486,7 +12479,7 @@
       </c>
       <c r="C5" s="23">
         <f>MAX(Changelog!D:D)</f>
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="D5" s="7"/>
     </row>
@@ -12516,7 +12509,7 @@
       </c>
       <c r="C8" s="75">
         <f>MAX(Changelog!B:B)</f>
-        <v>41690</v>
+        <v>41695</v>
       </c>
       <c r="D8" s="7"/>
     </row>
@@ -12798,13 +12791,13 @@
     </row>
     <row r="5" spans="1:17" ht="31" customHeight="1">
       <c r="A5" s="81"/>
-      <c r="B5" s="619" t="s">
+      <c r="B5" s="665" t="s">
         <v>351</v>
       </c>
-      <c r="C5" s="620"/>
-      <c r="D5" s="620"/>
-      <c r="E5" s="620"/>
-      <c r="F5" s="621"/>
+      <c r="C5" s="666"/>
+      <c r="D5" s="666"/>
+      <c r="E5" s="666"/>
+      <c r="F5" s="667"/>
       <c r="G5" s="81"/>
       <c r="H5" s="81"/>
       <c r="I5" s="81"/>
@@ -13695,12 +13688,12 @@
       <c r="E4" s="5"/>
     </row>
     <row r="5" spans="2:5" ht="30" customHeight="1">
-      <c r="B5" s="622" t="s">
+      <c r="B5" s="654" t="s">
         <v>324</v>
       </c>
-      <c r="C5" s="623"/>
-      <c r="D5" s="623"/>
-      <c r="E5" s="624"/>
+      <c r="C5" s="668"/>
+      <c r="D5" s="668"/>
+      <c r="E5" s="655"/>
     </row>
     <row r="6" spans="2:5" ht="16" thickBot="1"/>
     <row r="7" spans="2:5" s="235" customFormat="1">
@@ -14109,12 +14102,12 @@
       <c r="E4" s="5"/>
     </row>
     <row r="5" spans="2:5" ht="30" customHeight="1">
-      <c r="B5" s="622" t="s">
+      <c r="B5" s="654" t="s">
         <v>350</v>
       </c>
-      <c r="C5" s="623"/>
-      <c r="D5" s="623"/>
-      <c r="E5" s="624"/>
+      <c r="C5" s="668"/>
+      <c r="D5" s="668"/>
+      <c r="E5" s="655"/>
     </row>
     <row r="6" spans="2:5" ht="16" thickBot="1"/>
     <row r="7" spans="2:5">
@@ -14314,12 +14307,12 @@
       <c r="E4" s="5"/>
     </row>
     <row r="5" spans="2:7" ht="30" customHeight="1">
-      <c r="B5" s="619" t="s">
+      <c r="B5" s="665" t="s">
         <v>312</v>
       </c>
-      <c r="C5" s="620"/>
-      <c r="D5" s="620"/>
-      <c r="E5" s="621"/>
+      <c r="C5" s="666"/>
+      <c r="D5" s="666"/>
+      <c r="E5" s="667"/>
     </row>
     <row r="6" spans="2:7" ht="16" thickBot="1"/>
     <row r="7" spans="2:7">
@@ -14524,14 +14517,14 @@
       <c r="G4" s="136"/>
     </row>
     <row r="5" spans="2:15" ht="29" customHeight="1">
-      <c r="B5" s="625" t="s">
+      <c r="B5" s="669" t="s">
         <v>322</v>
       </c>
-      <c r="C5" s="626"/>
-      <c r="D5" s="626"/>
-      <c r="E5" s="626"/>
-      <c r="F5" s="626"/>
-      <c r="G5" s="627"/>
+      <c r="C5" s="670"/>
+      <c r="D5" s="670"/>
+      <c r="E5" s="670"/>
+      <c r="F5" s="670"/>
+      <c r="G5" s="671"/>
     </row>
     <row r="6" spans="2:15" ht="16" thickBot="1"/>
     <row r="7" spans="2:15" s="141" customFormat="1">
@@ -15625,12 +15618,12 @@
       <c r="E4" s="5"/>
     </row>
     <row r="5" spans="2:5" ht="47" customHeight="1">
-      <c r="B5" s="622" t="s">
+      <c r="B5" s="654" t="s">
         <v>321</v>
       </c>
-      <c r="C5" s="623"/>
-      <c r="D5" s="623"/>
-      <c r="E5" s="624"/>
+      <c r="C5" s="668"/>
+      <c r="D5" s="668"/>
+      <c r="E5" s="655"/>
     </row>
     <row r="6" spans="2:5" ht="16" thickBot="1"/>
     <row r="7" spans="2:5">
@@ -15861,13 +15854,13 @@
       <c r="F4" s="118"/>
     </row>
     <row r="5" spans="2:13" ht="30" customHeight="1">
-      <c r="B5" s="628" t="s">
+      <c r="B5" s="672" t="s">
         <v>469</v>
       </c>
-      <c r="C5" s="629"/>
-      <c r="D5" s="629"/>
-      <c r="E5" s="629"/>
-      <c r="F5" s="630"/>
+      <c r="C5" s="673"/>
+      <c r="D5" s="673"/>
+      <c r="E5" s="673"/>
+      <c r="F5" s="674"/>
     </row>
     <row r="6" spans="2:13" ht="15" customHeight="1">
       <c r="B6" s="312"/>
@@ -16327,7 +16320,9 @@
   </sheetPr>
   <dimension ref="B2:O22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -16363,13 +16358,13 @@
       <c r="G4" s="132"/>
     </row>
     <row r="5" spans="2:15" ht="30" customHeight="1">
-      <c r="B5" s="625" t="s">
+      <c r="B5" s="669" t="s">
         <v>323</v>
       </c>
-      <c r="C5" s="626"/>
-      <c r="D5" s="626"/>
-      <c r="E5" s="626"/>
-      <c r="F5" s="627"/>
+      <c r="C5" s="670"/>
+      <c r="D5" s="670"/>
+      <c r="E5" s="670"/>
+      <c r="F5" s="671"/>
       <c r="G5" s="607"/>
     </row>
     <row r="6" spans="2:15" ht="16" thickBot="1"/>
@@ -16486,9 +16481,9 @@
       <c r="C12" s="508" t="s">
         <v>222</v>
       </c>
-      <c r="D12" s="317">
-        <f>'Fuel aggregation'!F12</f>
-        <v>0</v>
+      <c r="D12" s="317" t="e">
+        <f>-'Steel and alu demand'!H28</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="E12" s="113" t="e">
         <f>SUM(technical_specs!D65:D66)</f>
@@ -16614,9 +16609,9 @@
       <c r="C17" s="508" t="s">
         <v>222</v>
       </c>
-      <c r="D17" s="317">
-        <f>'Fuel aggregation'!F12</f>
-        <v>0</v>
+      <c r="D17" s="317" t="e">
+        <f>-'Steel and alu demand'!H28</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="E17" s="211" t="e">
         <f>technical_specs!D68</f>
@@ -16808,13 +16803,13 @@
       <c r="F4" s="118"/>
     </row>
     <row r="5" spans="2:10" ht="45" customHeight="1">
-      <c r="B5" s="628" t="s">
+      <c r="B5" s="672" t="s">
         <v>470</v>
       </c>
-      <c r="C5" s="629"/>
-      <c r="D5" s="629"/>
-      <c r="E5" s="629"/>
-      <c r="F5" s="630"/>
+      <c r="C5" s="673"/>
+      <c r="D5" s="673"/>
+      <c r="E5" s="673"/>
+      <c r="F5" s="674"/>
     </row>
     <row r="6" spans="2:10" ht="16" thickBot="1"/>
     <row r="7" spans="2:10">
@@ -16999,14 +16994,14 @@
       <c r="G4" s="207"/>
     </row>
     <row r="5" spans="1:12" s="208" customFormat="1" ht="75" customHeight="1">
-      <c r="B5" s="628" t="s">
+      <c r="B5" s="672" t="s">
         <v>403</v>
       </c>
-      <c r="C5" s="629"/>
-      <c r="D5" s="629"/>
-      <c r="E5" s="629"/>
-      <c r="F5" s="629"/>
-      <c r="G5" s="630"/>
+      <c r="C5" s="673"/>
+      <c r="D5" s="673"/>
+      <c r="E5" s="673"/>
+      <c r="F5" s="673"/>
+      <c r="G5" s="674"/>
     </row>
     <row r="6" spans="1:12" ht="16" thickBot="1"/>
     <row r="7" spans="1:12">
@@ -17537,9 +17532,7 @@
   </sheetPr>
   <dimension ref="B2:D57"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -18095,10 +18088,16 @@
         <v>1.45</v>
       </c>
     </row>
-    <row r="54" spans="2:4">
-      <c r="B54" s="196"/>
-      <c r="C54" s="198"/>
-      <c r="D54" s="221"/>
+    <row r="54" spans="2:4" ht="45">
+      <c r="B54" s="196">
+        <v>41695</v>
+      </c>
+      <c r="C54" s="198" t="s">
+        <v>616</v>
+      </c>
+      <c r="D54" s="221">
+        <v>1.46</v>
+      </c>
     </row>
     <row r="55" spans="2:4">
       <c r="B55" s="196"/>
@@ -18180,15 +18179,15 @@
       <c r="I4" s="8"/>
     </row>
     <row r="5" spans="2:13" ht="90" customHeight="1">
-      <c r="B5" s="628" t="s">
+      <c r="B5" s="672" t="s">
         <v>468</v>
       </c>
-      <c r="C5" s="629"/>
-      <c r="D5" s="629"/>
-      <c r="E5" s="629"/>
-      <c r="F5" s="629"/>
-      <c r="G5" s="629"/>
-      <c r="H5" s="630"/>
+      <c r="C5" s="673"/>
+      <c r="D5" s="673"/>
+      <c r="E5" s="673"/>
+      <c r="F5" s="673"/>
+      <c r="G5" s="673"/>
+      <c r="H5" s="674"/>
       <c r="I5" s="8"/>
     </row>
     <row r="6" spans="2:13" ht="16" thickBot="1"/>
@@ -21207,744 +21206,744 @@
       <c r="B4" s="56" t="s">
         <v>83</v>
       </c>
-      <c r="C4" s="631"/>
+      <c r="C4" s="610"/>
     </row>
     <row r="5" spans="2:3" ht="75" customHeight="1">
-      <c r="B5" s="622" t="s">
+      <c r="B5" s="654" t="s">
         <v>412</v>
       </c>
-      <c r="C5" s="624"/>
+      <c r="C5" s="655"/>
     </row>
     <row r="6" spans="2:3" ht="16" thickBot="1"/>
     <row r="7" spans="2:3">
-      <c r="B7" s="632" t="s">
+      <c r="B7" s="611" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="633"/>
+      <c r="C7" s="612"/>
     </row>
     <row r="8" spans="2:3">
-      <c r="B8" s="634"/>
-      <c r="C8" s="635"/>
+      <c r="B8" s="613"/>
+      <c r="C8" s="614"/>
     </row>
     <row r="9" spans="2:3">
-      <c r="B9" s="636" t="s">
+      <c r="B9" s="615" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="637" t="s">
+      <c r="C9" s="616" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="10" spans="2:3">
-      <c r="B10" s="638" t="s">
+      <c r="B10" s="617" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="639"/>
+      <c r="C10" s="618"/>
     </row>
     <row r="11" spans="2:3" ht="30">
-      <c r="B11" s="634"/>
-      <c r="C11" s="640" t="s">
+      <c r="B11" s="613"/>
+      <c r="C11" s="619" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="12" spans="2:3" ht="30">
-      <c r="B12" s="634"/>
-      <c r="C12" s="640" t="s">
+      <c r="B12" s="613"/>
+      <c r="C12" s="619" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="13" spans="2:3">
-      <c r="B13" s="634"/>
-      <c r="C13" s="640" t="s">
+      <c r="B13" s="613"/>
+      <c r="C13" s="619" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="14" spans="2:3" ht="45">
-      <c r="B14" s="634"/>
-      <c r="C14" s="640" t="s">
+      <c r="B14" s="613"/>
+      <c r="C14" s="619" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="15" spans="2:3">
-      <c r="B15" s="634"/>
-      <c r="C15" s="640" t="s">
+      <c r="B15" s="613"/>
+      <c r="C15" s="619" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="16" spans="2:3" ht="16" thickBot="1">
-      <c r="B16" s="641"/>
-      <c r="C16" s="642"/>
-    </row>
-    <row r="17" spans="2:4" s="643" customFormat="1" ht="16" thickBot="1">
-      <c r="C17" s="644"/>
-      <c r="D17" s="644"/>
+      <c r="B16" s="620"/>
+      <c r="C16" s="621"/>
+    </row>
+    <row r="17" spans="2:4" s="622" customFormat="1" ht="16" thickBot="1">
+      <c r="C17" s="623"/>
+      <c r="D17" s="623"/>
     </row>
     <row r="18" spans="2:4">
-      <c r="B18" s="632" t="s">
+      <c r="B18" s="611" t="s">
         <v>183</v>
       </c>
-      <c r="C18" s="645"/>
-      <c r="D18" s="646"/>
+      <c r="C18" s="624"/>
+      <c r="D18" s="625"/>
     </row>
     <row r="19" spans="2:4">
-      <c r="B19" s="634"/>
-      <c r="C19" s="643"/>
-      <c r="D19" s="635"/>
+      <c r="B19" s="613"/>
+      <c r="C19" s="622"/>
+      <c r="D19" s="614"/>
     </row>
     <row r="20" spans="2:4">
-      <c r="B20" s="636" t="s">
+      <c r="B20" s="615" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="647" t="s">
+      <c r="C20" s="626" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="637" t="s">
+      <c r="D20" s="616" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="21" spans="2:4">
-      <c r="B21" s="648" t="s">
+      <c r="B21" s="627" t="s">
         <v>210</v>
       </c>
-      <c r="C21" s="649"/>
-      <c r="D21" s="650"/>
+      <c r="C21" s="628"/>
+      <c r="D21" s="629"/>
     </row>
     <row r="22" spans="2:4" ht="30">
-      <c r="B22" s="648"/>
+      <c r="B22" s="627"/>
       <c r="C22" s="198" t="s">
         <v>210</v>
       </c>
-      <c r="D22" s="640" t="s">
+      <c r="D22" s="619" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="23" spans="2:4">
-      <c r="B23" s="648"/>
+      <c r="B23" s="627"/>
       <c r="C23" s="198" t="s">
         <v>212</v>
       </c>
-      <c r="D23" s="640" t="s">
+      <c r="D23" s="619" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="24" spans="2:4">
-      <c r="B24" s="648"/>
+      <c r="B24" s="627"/>
       <c r="C24" s="198" t="s">
         <v>213</v>
       </c>
-      <c r="D24" s="640" t="s">
+      <c r="D24" s="619" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="25" spans="2:4">
-      <c r="B25" s="648"/>
+      <c r="B25" s="627"/>
       <c r="C25" s="198" t="s">
         <v>214</v>
       </c>
-      <c r="D25" s="640" t="s">
+      <c r="D25" s="619" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="26" spans="2:4">
-      <c r="B26" s="648"/>
+      <c r="B26" s="627"/>
       <c r="C26" s="198" t="s">
         <v>215</v>
       </c>
-      <c r="D26" s="640" t="s">
+      <c r="D26" s="619" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="27" spans="2:4">
-      <c r="B27" s="648"/>
-      <c r="C27" s="644"/>
-      <c r="D27" s="651"/>
+      <c r="B27" s="627"/>
+      <c r="C27" s="623"/>
+      <c r="D27" s="630"/>
     </row>
     <row r="28" spans="2:4">
-      <c r="B28" s="648"/>
+      <c r="B28" s="627"/>
       <c r="C28" s="198" t="s">
         <v>314</v>
       </c>
-      <c r="D28" s="640" t="s">
+      <c r="D28" s="619" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="29" spans="2:4">
-      <c r="B29" s="648"/>
+      <c r="B29" s="627"/>
       <c r="C29" s="198" t="s">
         <v>315</v>
       </c>
-      <c r="D29" s="640" t="s">
+      <c r="D29" s="619" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="30" spans="2:4">
-      <c r="B30" s="648"/>
-      <c r="C30" s="652"/>
-      <c r="D30" s="651"/>
+      <c r="B30" s="627"/>
+      <c r="C30" s="631"/>
+      <c r="D30" s="630"/>
     </row>
     <row r="31" spans="2:4">
-      <c r="B31" s="648" t="s">
+      <c r="B31" s="627" t="s">
         <v>227</v>
       </c>
-      <c r="C31" s="652"/>
-      <c r="D31" s="651"/>
+      <c r="C31" s="631"/>
+      <c r="D31" s="630"/>
     </row>
     <row r="32" spans="2:4" ht="30">
-      <c r="B32" s="648"/>
+      <c r="B32" s="627"/>
       <c r="C32" s="198" t="s">
         <v>227</v>
       </c>
-      <c r="D32" s="640" t="s">
+      <c r="D32" s="619" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="33" spans="2:4">
-      <c r="B33" s="653"/>
+      <c r="B33" s="632"/>
       <c r="C33" s="198" t="s">
         <v>223</v>
       </c>
-      <c r="D33" s="640" t="s">
+      <c r="D33" s="619" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="34" spans="2:4">
-      <c r="B34" s="653"/>
+      <c r="B34" s="632"/>
       <c r="C34" s="198" t="s">
         <v>224</v>
       </c>
-      <c r="D34" s="640" t="s">
+      <c r="D34" s="619" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="35" spans="2:4">
-      <c r="B35" s="653"/>
+      <c r="B35" s="632"/>
       <c r="C35" s="198" t="s">
         <v>225</v>
       </c>
-      <c r="D35" s="640" t="s">
+      <c r="D35" s="619" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="36" spans="2:4">
-      <c r="B36" s="654"/>
+      <c r="B36" s="633"/>
       <c r="C36" s="198" t="s">
         <v>226</v>
       </c>
-      <c r="D36" s="640" t="s">
+      <c r="D36" s="619" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="37" spans="2:4">
-      <c r="B37" s="654"/>
-      <c r="C37" s="655"/>
-      <c r="D37" s="656"/>
+      <c r="B37" s="633"/>
+      <c r="C37" s="634"/>
+      <c r="D37" s="635"/>
     </row>
     <row r="38" spans="2:4" ht="16" thickBot="1">
-      <c r="B38" s="657"/>
-      <c r="C38" s="658"/>
-      <c r="D38" s="659"/>
+      <c r="B38" s="636"/>
+      <c r="C38" s="637"/>
+      <c r="D38" s="638"/>
     </row>
     <row r="39" spans="2:4" ht="16" thickBot="1"/>
     <row r="40" spans="2:4">
-      <c r="B40" s="632" t="s">
+      <c r="B40" s="611" t="s">
         <v>193</v>
       </c>
-      <c r="C40" s="646"/>
+      <c r="C40" s="625"/>
     </row>
     <row r="41" spans="2:4">
-      <c r="B41" s="634"/>
-      <c r="C41" s="635"/>
+      <c r="B41" s="613"/>
+      <c r="C41" s="614"/>
     </row>
     <row r="42" spans="2:4">
-      <c r="B42" s="636" t="s">
+      <c r="B42" s="615" t="s">
         <v>413</v>
       </c>
-      <c r="C42" s="660" t="s">
+      <c r="C42" s="639" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="43" spans="2:4">
-      <c r="B43" s="661" t="s">
+      <c r="B43" s="640" t="s">
         <v>194</v>
       </c>
-      <c r="C43" s="662" t="s">
+      <c r="C43" s="641" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="44" spans="2:4">
-      <c r="B44" s="634"/>
-      <c r="C44" s="662" t="s">
+      <c r="B44" s="613"/>
+      <c r="C44" s="641" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="45" spans="2:4">
-      <c r="B45" s="634"/>
-      <c r="C45" s="662" t="s">
+      <c r="B45" s="613"/>
+      <c r="C45" s="641" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="46" spans="2:4">
-      <c r="B46" s="634"/>
-      <c r="C46" s="662" t="s">
+      <c r="B46" s="613"/>
+      <c r="C46" s="641" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="47" spans="2:4">
-      <c r="B47" s="634"/>
-      <c r="C47" s="662" t="s">
+      <c r="B47" s="613"/>
+      <c r="C47" s="641" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="48" spans="2:4">
-      <c r="B48" s="634"/>
-      <c r="C48" s="662" t="s">
+      <c r="B48" s="613"/>
+      <c r="C48" s="641" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="49" spans="2:3">
-      <c r="B49" s="634"/>
-      <c r="C49" s="663" t="s">
+      <c r="B49" s="613"/>
+      <c r="C49" s="642" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="50" spans="2:3">
-      <c r="B50" s="648"/>
-      <c r="C50" s="663" t="s">
+      <c r="B50" s="627"/>
+      <c r="C50" s="642" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="51" spans="2:3">
-      <c r="B51" s="634"/>
-      <c r="C51" s="662" t="s">
+      <c r="B51" s="613"/>
+      <c r="C51" s="641" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="52" spans="2:3">
-      <c r="B52" s="634"/>
-      <c r="C52" s="663" t="s">
+      <c r="B52" s="613"/>
+      <c r="C52" s="642" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="53" spans="2:3">
-      <c r="B53" s="634"/>
-      <c r="C53" s="662" t="s">
+      <c r="B53" s="613"/>
+      <c r="C53" s="641" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="54" spans="2:3">
-      <c r="B54" s="634"/>
-      <c r="C54" s="662" t="s">
+      <c r="B54" s="613"/>
+      <c r="C54" s="641" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="55" spans="2:3">
-      <c r="B55" s="634"/>
-      <c r="C55" s="663" t="s">
+      <c r="B55" s="613"/>
+      <c r="C55" s="642" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="56" spans="2:3">
-      <c r="B56" s="634"/>
-      <c r="C56" s="663"/>
+      <c r="B56" s="613"/>
+      <c r="C56" s="642"/>
     </row>
     <row r="57" spans="2:3">
-      <c r="B57" s="664" t="s">
+      <c r="B57" s="643" t="s">
         <v>206</v>
       </c>
-      <c r="C57" s="665" t="s">
+      <c r="C57" s="644" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="58" spans="2:3">
-      <c r="B58" s="666"/>
-      <c r="C58" s="667"/>
+      <c r="B58" s="645"/>
+      <c r="C58" s="646"/>
     </row>
     <row r="59" spans="2:3">
-      <c r="B59" s="664" t="s">
+      <c r="B59" s="643" t="s">
         <v>207</v>
       </c>
-      <c r="C59" s="662" t="s">
+      <c r="C59" s="641" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="60" spans="2:3">
-      <c r="B60" s="661"/>
-      <c r="C60" s="662" t="s">
+      <c r="B60" s="640"/>
+      <c r="C60" s="641" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="61" spans="2:3">
-      <c r="B61" s="661"/>
-      <c r="C61" s="663" t="s">
+      <c r="B61" s="640"/>
+      <c r="C61" s="642" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="62" spans="2:3">
-      <c r="B62" s="666"/>
-      <c r="C62" s="667"/>
+      <c r="B62" s="645"/>
+      <c r="C62" s="646"/>
     </row>
     <row r="63" spans="2:3">
-      <c r="B63" s="661" t="s">
+      <c r="B63" s="640" t="s">
         <v>270</v>
       </c>
-      <c r="C63" s="662" t="s">
+      <c r="C63" s="641" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="64" spans="2:3">
-      <c r="B64" s="661"/>
-      <c r="C64" s="662" t="s">
+      <c r="B64" s="640"/>
+      <c r="C64" s="641" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="65" spans="2:3">
-      <c r="B65" s="666"/>
-      <c r="C65" s="667"/>
+      <c r="B65" s="645"/>
+      <c r="C65" s="646"/>
     </row>
     <row r="66" spans="2:3">
-      <c r="B66" s="661" t="s">
+      <c r="B66" s="640" t="s">
         <v>51</v>
       </c>
-      <c r="C66" s="662" t="s">
+      <c r="C66" s="641" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="67" spans="2:3">
-      <c r="B67" s="661"/>
-      <c r="C67" s="662" t="s">
+      <c r="B67" s="640"/>
+      <c r="C67" s="641" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="68" spans="2:3">
-      <c r="B68" s="634"/>
-      <c r="C68" s="662" t="s">
+      <c r="B68" s="613"/>
+      <c r="C68" s="641" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="69" spans="2:3">
-      <c r="B69" s="634"/>
-      <c r="C69" s="662" t="s">
+      <c r="B69" s="613"/>
+      <c r="C69" s="641" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="70" spans="2:3">
-      <c r="B70" s="634"/>
-      <c r="C70" s="662" t="s">
+      <c r="B70" s="613"/>
+      <c r="C70" s="641" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="71" spans="2:3">
-      <c r="B71" s="634"/>
-      <c r="C71" s="662" t="s">
+      <c r="B71" s="613"/>
+      <c r="C71" s="641" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="72" spans="2:3">
-      <c r="B72" s="634"/>
-      <c r="C72" s="662" t="s">
+      <c r="B72" s="613"/>
+      <c r="C72" s="641" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="73" spans="2:3">
-      <c r="B73" s="634"/>
-      <c r="C73" s="662" t="s">
+      <c r="B73" s="613"/>
+      <c r="C73" s="641" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="74" spans="2:3">
-      <c r="B74" s="634"/>
-      <c r="C74" s="662" t="s">
+      <c r="B74" s="613"/>
+      <c r="C74" s="641" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="75" spans="2:3">
-      <c r="B75" s="634"/>
-      <c r="C75" s="662" t="s">
+      <c r="B75" s="613"/>
+      <c r="C75" s="641" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="76" spans="2:3">
-      <c r="B76" s="634"/>
-      <c r="C76" s="662" t="s">
+      <c r="B76" s="613"/>
+      <c r="C76" s="641" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="77" spans="2:3">
-      <c r="B77" s="634"/>
-      <c r="C77" s="662" t="s">
+      <c r="B77" s="613"/>
+      <c r="C77" s="641" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="78" spans="2:3">
-      <c r="B78" s="634"/>
-      <c r="C78" s="662" t="s">
+      <c r="B78" s="613"/>
+      <c r="C78" s="641" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="79" spans="2:3">
-      <c r="B79" s="634"/>
-      <c r="C79" s="662" t="s">
+      <c r="B79" s="613"/>
+      <c r="C79" s="641" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="80" spans="2:3">
-      <c r="B80" s="634"/>
-      <c r="C80" s="662" t="s">
+      <c r="B80" s="613"/>
+      <c r="C80" s="641" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="81" spans="2:3">
-      <c r="B81" s="634"/>
-      <c r="C81" s="662" t="s">
+      <c r="B81" s="613"/>
+      <c r="C81" s="641" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="82" spans="2:3">
-      <c r="B82" s="634"/>
-      <c r="C82" s="662" t="s">
+      <c r="B82" s="613"/>
+      <c r="C82" s="641" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="83" spans="2:3">
-      <c r="B83" s="634"/>
-      <c r="C83" s="662" t="s">
+      <c r="B83" s="613"/>
+      <c r="C83" s="641" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="84" spans="2:3">
-      <c r="B84" s="634"/>
-      <c r="C84" s="662" t="s">
+      <c r="B84" s="613"/>
+      <c r="C84" s="641" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="85" spans="2:3">
-      <c r="B85" s="634"/>
-      <c r="C85" s="662" t="s">
+      <c r="B85" s="613"/>
+      <c r="C85" s="641" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="86" spans="2:3">
-      <c r="B86" s="634"/>
-      <c r="C86" s="662" t="s">
+      <c r="B86" s="613"/>
+      <c r="C86" s="641" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="87" spans="2:3">
-      <c r="B87" s="634"/>
-      <c r="C87" s="662" t="s">
+      <c r="B87" s="613"/>
+      <c r="C87" s="641" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="88" spans="2:3">
-      <c r="B88" s="634"/>
-      <c r="C88" s="662" t="s">
+      <c r="B88" s="613"/>
+      <c r="C88" s="641" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="89" spans="2:3">
-      <c r="B89" s="668"/>
-      <c r="C89" s="667"/>
+      <c r="B89" s="647"/>
+      <c r="C89" s="646"/>
     </row>
     <row r="90" spans="2:3">
-      <c r="B90" s="661" t="s">
+      <c r="B90" s="640" t="s">
         <v>196</v>
       </c>
-      <c r="C90" s="662" t="s">
+      <c r="C90" s="641" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="91" spans="2:3">
-      <c r="B91" s="634"/>
-      <c r="C91" s="662" t="s">
+      <c r="B91" s="613"/>
+      <c r="C91" s="641" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="92" spans="2:3">
-      <c r="B92" s="634"/>
-      <c r="C92" s="662"/>
+      <c r="B92" s="613"/>
+      <c r="C92" s="641"/>
     </row>
     <row r="93" spans="2:3">
-      <c r="B93" s="664" t="s">
+      <c r="B93" s="643" t="s">
         <v>104</v>
       </c>
-      <c r="C93" s="669" t="s">
+      <c r="C93" s="648" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="94" spans="2:3">
-      <c r="B94" s="661"/>
-      <c r="C94" s="662"/>
+      <c r="B94" s="640"/>
+      <c r="C94" s="641"/>
     </row>
     <row r="95" spans="2:3">
-      <c r="B95" s="664" t="s">
+      <c r="B95" s="643" t="s">
         <v>103</v>
       </c>
-      <c r="C95" s="669" t="s">
+      <c r="C95" s="648" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="96" spans="2:3">
-      <c r="B96" s="666"/>
-      <c r="C96" s="667"/>
+      <c r="B96" s="645"/>
+      <c r="C96" s="646"/>
     </row>
     <row r="97" spans="2:3">
-      <c r="B97" s="661" t="s">
+      <c r="B97" s="640" t="s">
         <v>82</v>
       </c>
-      <c r="C97" s="662" t="s">
+      <c r="C97" s="641" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="98" spans="2:3">
-      <c r="B98" s="661"/>
-      <c r="C98" s="662" t="s">
+      <c r="B98" s="640"/>
+      <c r="C98" s="641" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="99" spans="2:3">
-      <c r="B99" s="661"/>
-      <c r="C99" s="662" t="s">
+      <c r="B99" s="640"/>
+      <c r="C99" s="641" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="100" spans="2:3">
-      <c r="B100" s="661"/>
-      <c r="C100" s="662" t="s">
+      <c r="B100" s="640"/>
+      <c r="C100" s="641" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="101" spans="2:3">
-      <c r="B101" s="661"/>
-      <c r="C101" s="662" t="s">
+      <c r="B101" s="640"/>
+      <c r="C101" s="641" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="102" spans="2:3">
-      <c r="B102" s="661"/>
-      <c r="C102" s="662" t="s">
+      <c r="B102" s="640"/>
+      <c r="C102" s="641" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="103" spans="2:3">
-      <c r="B103" s="661"/>
-      <c r="C103" s="662" t="s">
+      <c r="B103" s="640"/>
+      <c r="C103" s="641" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="104" spans="2:3">
-      <c r="B104" s="634"/>
-      <c r="C104" s="662" t="s">
+      <c r="B104" s="613"/>
+      <c r="C104" s="641" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="105" spans="2:3">
-      <c r="B105" s="634"/>
-      <c r="C105" s="662" t="s">
+      <c r="B105" s="613"/>
+      <c r="C105" s="641" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="106" spans="2:3">
-      <c r="B106" s="634"/>
-      <c r="C106" s="662" t="s">
+      <c r="B106" s="613"/>
+      <c r="C106" s="641" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="107" spans="2:3">
-      <c r="B107" s="661"/>
-      <c r="C107" s="662" t="s">
+      <c r="B107" s="640"/>
+      <c r="C107" s="641" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="108" spans="2:3">
-      <c r="B108" s="661"/>
-      <c r="C108" s="662" t="s">
+      <c r="B108" s="640"/>
+      <c r="C108" s="641" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="109" spans="2:3">
-      <c r="B109" s="661"/>
-      <c r="C109" s="662" t="s">
+      <c r="B109" s="640"/>
+      <c r="C109" s="641" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="110" spans="2:3">
-      <c r="B110" s="661"/>
-      <c r="C110" s="662" t="s">
+      <c r="B110" s="640"/>
+      <c r="C110" s="641" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="111" spans="2:3">
-      <c r="B111" s="661"/>
-      <c r="C111" s="662" t="s">
+      <c r="B111" s="640"/>
+      <c r="C111" s="641" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="112" spans="2:3">
-      <c r="B112" s="661"/>
-      <c r="C112" s="662" t="s">
+      <c r="B112" s="640"/>
+      <c r="C112" s="641" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="113" spans="2:4">
-      <c r="B113" s="661"/>
-      <c r="C113" s="662" t="s">
+      <c r="B113" s="640"/>
+      <c r="C113" s="641" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="114" spans="2:4">
-      <c r="B114" s="634"/>
-      <c r="C114" s="670" t="s">
+      <c r="B114" s="613"/>
+      <c r="C114" s="649" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="115" spans="2:4" ht="16" thickBot="1">
-      <c r="B115" s="641"/>
-      <c r="C115" s="671"/>
+      <c r="B115" s="620"/>
+      <c r="C115" s="650"/>
     </row>
     <row r="116" spans="2:4" ht="16" thickBot="1"/>
     <row r="117" spans="2:4">
-      <c r="B117" s="632" t="s">
+      <c r="B117" s="611" t="s">
         <v>208</v>
       </c>
-      <c r="C117" s="633"/>
-      <c r="D117" s="643"/>
+      <c r="C117" s="612"/>
+      <c r="D117" s="622"/>
     </row>
     <row r="118" spans="2:4">
-      <c r="B118" s="634"/>
-      <c r="C118" s="635"/>
-      <c r="D118" s="643"/>
+      <c r="B118" s="613"/>
+      <c r="C118" s="614"/>
+      <c r="D118" s="622"/>
     </row>
     <row r="119" spans="2:4">
-      <c r="B119" s="636" t="s">
+      <c r="B119" s="615" t="s">
         <v>29</v>
       </c>
-      <c r="C119" s="660" t="s">
+      <c r="C119" s="639" t="s">
         <v>30</v>
       </c>
-      <c r="D119" s="672"/>
+      <c r="D119" s="651"/>
     </row>
     <row r="120" spans="2:4">
-      <c r="B120" s="673"/>
-      <c r="C120" s="639"/>
-      <c r="D120" s="672"/>
+      <c r="B120" s="652"/>
+      <c r="C120" s="618"/>
+      <c r="D120" s="651"/>
     </row>
     <row r="121" spans="2:4">
-      <c r="B121" s="634" t="s">
+      <c r="B121" s="613" t="s">
         <v>202</v>
       </c>
-      <c r="C121" s="635">
+      <c r="C121" s="614">
         <v>3.6</v>
       </c>
-      <c r="D121" s="643"/>
+      <c r="D121" s="622"/>
     </row>
     <row r="122" spans="2:4" ht="16" thickBot="1">
-      <c r="B122" s="641"/>
-      <c r="C122" s="642"/>
-      <c r="D122" s="643"/>
+      <c r="B122" s="620"/>
+      <c r="C122" s="621"/>
+      <c r="D122" s="622"/>
     </row>
     <row r="123" spans="2:4">
-      <c r="B123" s="643"/>
-      <c r="C123" s="643"/>
-      <c r="D123" s="643"/>
+      <c r="B123" s="622"/>
+      <c r="C123" s="622"/>
+      <c r="D123" s="622"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -22019,32 +22018,32 @@
       <c r="K4" s="7"/>
     </row>
     <row r="5" spans="2:16">
-      <c r="B5" s="612" t="s">
+      <c r="B5" s="656" t="s">
         <v>592</v>
       </c>
-      <c r="C5" s="613"/>
-      <c r="D5" s="613"/>
-      <c r="E5" s="614"/>
+      <c r="C5" s="657"/>
+      <c r="D5" s="657"/>
+      <c r="E5" s="658"/>
       <c r="F5" s="8"/>
       <c r="I5" s="526"/>
       <c r="J5" s="8"/>
       <c r="K5" s="7"/>
     </row>
     <row r="6" spans="2:16">
-      <c r="B6" s="612"/>
-      <c r="C6" s="613"/>
-      <c r="D6" s="613"/>
-      <c r="E6" s="614"/>
+      <c r="B6" s="656"/>
+      <c r="C6" s="657"/>
+      <c r="D6" s="657"/>
+      <c r="E6" s="658"/>
       <c r="F6" s="8"/>
       <c r="I6" s="423"/>
       <c r="J6" s="8"/>
       <c r="K6" s="7"/>
     </row>
     <row r="7" spans="2:16" ht="60" customHeight="1">
-      <c r="B7" s="610"/>
-      <c r="C7" s="615"/>
-      <c r="D7" s="615"/>
-      <c r="E7" s="611"/>
+      <c r="B7" s="659"/>
+      <c r="C7" s="660"/>
+      <c r="D7" s="660"/>
+      <c r="E7" s="661"/>
       <c r="F7" s="283"/>
       <c r="I7" s="520"/>
       <c r="J7" s="9"/>
@@ -23006,7 +23005,7 @@
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="40"/>
-      <c r="L47" s="674" t="b">
+      <c r="L47" s="653" t="b">
         <f>IF(OR('Corrected energy balance step 2'!BN30=0, 'Corrected energy balance step 2'!BN46=0), FALSE, TRUE)</f>
         <v>0</v>
       </c>
@@ -30326,12 +30325,12 @@
       <c r="M4" s="8"/>
     </row>
     <row r="5" spans="2:21" ht="45" customHeight="1">
-      <c r="B5" s="616" t="s">
+      <c r="B5" s="662" t="s">
         <v>587</v>
       </c>
-      <c r="C5" s="617"/>
-      <c r="D5" s="617"/>
-      <c r="E5" s="618"/>
+      <c r="C5" s="663"/>
+      <c r="D5" s="663"/>
+      <c r="E5" s="664"/>
       <c r="F5" s="47"/>
       <c r="G5" s="47"/>
       <c r="H5" s="47"/>

--- a/analyses/4a_metal_industry_analysis.xlsx
+++ b/analyses/4a_metal_industry_analysis.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="15500" tabRatio="835" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="32760" yWindow="2820" windowWidth="28800" windowHeight="15800" tabRatio="835" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Sheet" sheetId="34" r:id="rId1"/>
@@ -28,24 +28,26 @@
     <sheet name="Other energy use" sheetId="77" r:id="rId19"/>
     <sheet name="Fuel aggregation" sheetId="59" r:id="rId20"/>
     <sheet name="csv_export_to_industry_analysis" sheetId="96" r:id="rId21"/>
-    <sheet name="csv_metals_electricity_parent" sheetId="88" r:id="rId22"/>
-    <sheet name="csv_metals_network_gas_parent" sheetId="91" r:id="rId23"/>
-    <sheet name="csv_metals_steam_hot_water_pare" sheetId="89" r:id="rId24"/>
-    <sheet name="csv_industry_burner_aluminium_p" sheetId="94" r:id="rId25"/>
-    <sheet name="csv_industry_burner_blastfurnac" sheetId="95" r:id="rId26"/>
-    <sheet name="csv_blast_curr_cons_efficiency" sheetId="106" r:id="rId27"/>
-    <sheet name="csv_blast_bat_cons_efficiency" sheetId="107" r:id="rId28"/>
-    <sheet name="csv_blast_curr_trans_efficiency" sheetId="102" r:id="rId29"/>
-    <sheet name="csv_blast_bat_trans_efficiency" sheetId="103" r:id="rId30"/>
-    <sheet name="csv_cokesoven_cons_coal_gas" sheetId="104" r:id="rId31"/>
-    <sheet name="csv_cokesoven_cons_trans_coal" sheetId="105" r:id="rId32"/>
-    <sheet name="csv_metal_demands" sheetId="108" r:id="rId33"/>
+    <sheet name="csv_metals_coal_parent_share" sheetId="109" r:id="rId22"/>
+    <sheet name="csv_metals_electricity_parent" sheetId="88" r:id="rId23"/>
+    <sheet name="csv_metals_network_gas_parent" sheetId="91" r:id="rId24"/>
+    <sheet name="csv_metals_steam_hot_water_pare" sheetId="89" r:id="rId25"/>
+    <sheet name="csv_industry_burner_aluminium_p" sheetId="94" r:id="rId26"/>
+    <sheet name="csv_industry_burner_blastfurnac" sheetId="95" r:id="rId27"/>
+    <sheet name="csv_blast_curr_cons_efficiency" sheetId="106" r:id="rId28"/>
+    <sheet name="csv_blast_bat_cons_efficiency" sheetId="107" r:id="rId29"/>
+    <sheet name="csv_blast_curr_trans_efficiency" sheetId="102" r:id="rId30"/>
+    <sheet name="csv_blast_bat_trans_efficiency" sheetId="103" r:id="rId31"/>
+    <sheet name="csv_cokesoven_cons_coal_gas" sheetId="104" r:id="rId32"/>
+    <sheet name="csv_cokesoven_cons_trans_coal" sheetId="105" r:id="rId33"/>
+    <sheet name="csv_metal_demands" sheetId="108" r:id="rId34"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId34"/>
+    <externalReference r:id="rId35"/>
+    <externalReference r:id="rId36"/>
   </externalReferences>
   <definedNames>
-    <definedName name="aluminium_production">Dashboard!$E$40</definedName>
+    <definedName name="aluminium_production">Dashboard!$E$41</definedName>
     <definedName name="base_year">Dashboard!$E$14</definedName>
     <definedName name="country">Dashboard!$E$13</definedName>
     <definedName name="Eff_Airco" localSheetId="9">'Final demand'!#REF!</definedName>
@@ -124,12 +126,13 @@
     <definedName name="Perc_Heat_Delivered_District_Heat" localSheetId="19">'[1]Tech split of useful demand'!$G$16</definedName>
     <definedName name="Perc_Heat_Delivered_Solar_Thermal" localSheetId="19">'[1]Tech split of useful demand'!$G$18</definedName>
     <definedName name="Perc_Roof_for_PV" localSheetId="19">'[1]PV solar area and production'!$E$22</definedName>
-    <definedName name="share_aluminium_carbothermal_reduction">Dashboard!$E$44</definedName>
-    <definedName name="share_aluminium_electrolysis_bat">Dashboard!$E$42</definedName>
-    <definedName name="share_aluminium_electrolysis_current">Dashboard!$E$41</definedName>
-    <definedName name="share_aluminium_melting_oven">Dashboard!$E$43</definedName>
-    <definedName name="share_blast_furnace_burner_coal_gas">Dashboard!$E$24</definedName>
-    <definedName name="share_blast_furnace_burner_network_gas">Dashboard!$E$25</definedName>
+    <definedName name="share_aluminium_carbothermal_reduction">Dashboard!$E$45</definedName>
+    <definedName name="share_aluminium_electrolysis_bat">Dashboard!$E$43</definedName>
+    <definedName name="share_aluminium_electrolysis_current">Dashboard!$E$42</definedName>
+    <definedName name="share_aluminium_melting_oven">Dashboard!$E$44</definedName>
+    <definedName name="share_blast_furnace_burner_coal">Dashboard!$E$24</definedName>
+    <definedName name="share_blast_furnace_burner_coal_gas">Dashboard!$E$25</definedName>
+    <definedName name="share_blast_furnace_burner_network_gas">Dashboard!$E$26</definedName>
     <definedName name="Share_Lighting_Fluorescent_Lamp" localSheetId="19">'[1]Shares per tech per carrier'!$E$22</definedName>
     <definedName name="Share_Lighting_Fluorescent_Tube" localSheetId="19">'[1]Shares per tech per carrier'!$E$23</definedName>
     <definedName name="Share_Lighting_Incandescent_Lamp" localSheetId="19">'[1]Shares per tech per carrier'!$E$21</definedName>
@@ -211,7 +214,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1115" uniqueCount="617">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1128" uniqueCount="624">
   <si>
     <t>Changelog</t>
   </si>
@@ -2092,6 +2095,27 @@
   </si>
   <si>
     <t>Updated cokes demand sheet to make sure that the calculated cokes production is based on the cokes demand for steel production</t>
+  </si>
+  <si>
+    <t>Percentage of input from coal (and cokes)</t>
+  </si>
+  <si>
+    <t>share_blast_furnace_burner_coal</t>
+  </si>
+  <si>
+    <t>metal_steel_burner_share_coal</t>
+  </si>
+  <si>
+    <t>industry_final_demand_for_metal_coal_parent_share</t>
+  </si>
+  <si>
+    <t>May 28, 2014</t>
+  </si>
+  <si>
+    <t>Enabled the coal (i.e. cokes) consumption in the blast furnace burner, because several countries does have a substantial final demand of coke oven coke in the iron and steel sector. Added aditional assumption on dashboard, made changes to the Steel and alu demand and Shares per carrier per tech sheet. Added csv_metals_coal_parent_share sheet. See also https://github.com/quintel/etdataset/issues/490)</t>
+  </si>
+  <si>
+    <t>Percentage of coal input in blastfurnace burner</t>
   </si>
 </sst>
 </file>
@@ -3132,7 +3156,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1555">
+  <cellStyleXfs count="1571">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4688,8 +4712,24 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="675">
+  <cellXfs count="676">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -6002,6 +6042,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -6066,7 +6107,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1555">
+  <cellStyles count="1571">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -6844,6 +6885,14 @@
     <cellStyle name="Followed Hyperlink" xfId="1550" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1552" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1554" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1556" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1558" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1560" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1562" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1564" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1566" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1568" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1570" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -7619,6 +7668,14 @@
     <cellStyle name="Hyperlink" xfId="1549" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1551" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1553" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1555" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1557" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1559" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1561" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1563" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1565" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1567" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1569" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
     <cellStyle name="Percent 2" xfId="772"/>
@@ -12121,6 +12178,28 @@
 </externalLink>
 </file>
 
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Cover sheet"/>
+      <sheetName val="Dashboard"/>
+      <sheetName val="analysis_manager.xlsm"/>
+    </sheetNames>
+    <definedNames>
+      <definedName name="export_data_button"/>
+      <definedName name="import_data_button"/>
+      <definedName name="select_dashboard_values"/>
+    </definedNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -12479,7 +12558,7 @@
       </c>
       <c r="C5" s="23">
         <f>MAX(Changelog!D:D)</f>
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="D5" s="7"/>
     </row>
@@ -12791,13 +12870,13 @@
     </row>
     <row r="5" spans="1:17" ht="31" customHeight="1">
       <c r="A5" s="81"/>
-      <c r="B5" s="665" t="s">
+      <c r="B5" s="666" t="s">
         <v>351</v>
       </c>
-      <c r="C5" s="666"/>
-      <c r="D5" s="666"/>
-      <c r="E5" s="666"/>
-      <c r="F5" s="667"/>
+      <c r="C5" s="667"/>
+      <c r="D5" s="667"/>
+      <c r="E5" s="667"/>
+      <c r="F5" s="668"/>
       <c r="G5" s="81"/>
       <c r="H5" s="81"/>
       <c r="I5" s="81"/>
@@ -13181,9 +13260,9 @@
       <c r="B19" s="178" t="s">
         <v>287</v>
       </c>
-      <c r="C19" s="373">
+      <c r="C19" s="373" t="e">
         <f>'Other energy use'!D12</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="D19" s="497" t="s">
         <v>337</v>
@@ -13275,9 +13354,9 @@
       <c r="B21" s="178" t="s">
         <v>286</v>
       </c>
-      <c r="C21" s="373">
+      <c r="C21" s="373" t="e">
         <f>'Other energy use'!D22</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="D21" s="496" t="s">
         <v>337</v>
@@ -13663,9 +13742,11 @@
   <sheetPr codeName="Sheet11" enableFormatConditionsCalculation="0">
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="B2:E39"/>
+  <dimension ref="B2:E40"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -13688,12 +13769,12 @@
       <c r="E4" s="5"/>
     </row>
     <row r="5" spans="2:5" ht="30" customHeight="1">
-      <c r="B5" s="654" t="s">
+      <c r="B5" s="655" t="s">
         <v>324</v>
       </c>
-      <c r="C5" s="668"/>
-      <c r="D5" s="668"/>
-      <c r="E5" s="655"/>
+      <c r="C5" s="669"/>
+      <c r="D5" s="669"/>
+      <c r="E5" s="656"/>
     </row>
     <row r="6" spans="2:5" ht="16" thickBot="1"/>
     <row r="7" spans="2:5" s="235" customFormat="1">
@@ -13872,109 +13953,109 @@
     </row>
     <row r="22" spans="2:5">
       <c r="B22" s="488"/>
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="654" t="s">
+        <v>238</v>
+      </c>
+      <c r="D22" s="354" t="e">
+        <f>'Steel and alu demand'!G18</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E22" s="267" t="e">
+        <f>D22/SUM($D$22:$D$23)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23" s="488"/>
+      <c r="C23" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="D22" s="354">
+      <c r="D23" s="354" t="e">
         <f>'Other energy use'!D22</f>
-        <v>0</v>
-      </c>
-      <c r="E22" s="267" t="e">
-        <f>D22/SUM($D$22)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5">
-      <c r="B23" s="489"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="355"/>
-      <c r="E23" s="270"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E23" s="267" t="e">
+        <f>D23/SUM($D$22:$D$23)</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="24" spans="2:5">
-      <c r="B24" s="487" t="s">
+      <c r="B24" s="489"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="355"/>
+      <c r="E24" s="270"/>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25" s="487" t="s">
         <v>207</v>
       </c>
-      <c r="C24" s="158"/>
-      <c r="D24" s="356"/>
-      <c r="E24" s="269"/>
-    </row>
-    <row r="25" spans="2:5">
-      <c r="B25" s="488"/>
-      <c r="C25" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="D25" s="354" t="e">
-        <f>'Steel and alu demand'!I18</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E25" s="267" t="e">
-        <f>D25/SUM($D$25)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="C25" s="158"/>
+      <c r="D25" s="356"/>
+      <c r="E25" s="269"/>
     </row>
     <row r="26" spans="2:5">
       <c r="B26" s="488"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="355"/>
-      <c r="E26" s="270"/>
+      <c r="C26" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="D26" s="354" t="e">
+        <f>'Steel and alu demand'!I18</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E26" s="267" t="e">
+        <f>D26/SUM($D$26)</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="27" spans="2:5">
-      <c r="B27" s="487" t="s">
+      <c r="B27" s="488"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="355"/>
+      <c r="E27" s="270"/>
+    </row>
+    <row r="28" spans="2:5">
+      <c r="B28" s="487" t="s">
         <v>270</v>
       </c>
-      <c r="C27" s="158"/>
-      <c r="D27" s="356"/>
-      <c r="E27" s="269"/>
-    </row>
-    <row r="28" spans="2:5">
-      <c r="B28" s="488"/>
-      <c r="C28" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="D28" s="354" t="e">
-        <f>'Steel and alu demand'!J18</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E28" s="267" t="e">
-        <f>D28/SUM($D$28:$D$31)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="C28" s="158"/>
+      <c r="D28" s="356"/>
+      <c r="E28" s="269"/>
     </row>
     <row r="29" spans="2:5">
       <c r="B29" s="488"/>
       <c r="C29" s="15" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D29" s="354" t="e">
-        <f>'Steel and alu demand'!J19</f>
+        <f>'Steel and alu demand'!J18</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E29" s="267" t="e">
-        <f t="shared" ref="E29:E31" si="1">D29/SUM($D$28:$D$31)</f>
+        <f>D29/SUM($D$29:$D$32)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="30" spans="2:5">
       <c r="B30" s="488"/>
       <c r="C30" s="15" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D30" s="354" t="e">
-        <f>'Steel and alu demand'!J42</f>
+        <f>'Steel and alu demand'!J19</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E30" s="267" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="E30:E32" si="1">D30/SUM($D$29:$D$32)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="31" spans="2:5">
       <c r="B31" s="488"/>
       <c r="C31" s="15" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D31" s="354" t="e">
-        <f>'Other energy use'!G22</f>
+        <f>'Steel and alu demand'!J42</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E31" s="267" t="e">
@@ -13984,79 +14065,93 @@
     </row>
     <row r="32" spans="2:5">
       <c r="B32" s="488"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="355"/>
-      <c r="E32" s="270"/>
+      <c r="C32" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="D32" s="354" t="e">
+        <f>'Other energy use'!G22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E32" s="267" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="33" spans="2:5">
-      <c r="B33" s="487" t="s">
+      <c r="B33" s="488"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="355"/>
+      <c r="E33" s="270"/>
+    </row>
+    <row r="34" spans="2:5">
+      <c r="B34" s="487" t="s">
         <v>51</v>
       </c>
-      <c r="C33" s="158"/>
-      <c r="D33" s="356"/>
-      <c r="E33" s="269"/>
-    </row>
-    <row r="34" spans="2:5">
-      <c r="B34" s="488"/>
-      <c r="C34" s="15" t="s">
+      <c r="C34" s="158"/>
+      <c r="D34" s="356"/>
+      <c r="E34" s="269"/>
+    </row>
+    <row r="35" spans="2:5">
+      <c r="B35" s="488"/>
+      <c r="C35" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="D34" s="354">
+      <c r="D35" s="354">
         <f>'Other energy use'!H22</f>
         <v>0</v>
       </c>
-      <c r="E34" s="267" t="e">
-        <f>D34/SUM($D$34)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5">
-      <c r="B35" s="488"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="355"/>
-      <c r="E35" s="270"/>
+      <c r="E35" s="267" t="e">
+        <f>D35/SUM($D$35)</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="36" spans="2:5">
-      <c r="B36" s="487" t="s">
+      <c r="B36" s="488"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="355"/>
+      <c r="E36" s="270"/>
+    </row>
+    <row r="37" spans="2:5">
+      <c r="B37" s="487" t="s">
         <v>104</v>
       </c>
-      <c r="C36" s="158"/>
-      <c r="D36" s="356"/>
-      <c r="E36" s="269"/>
-    </row>
-    <row r="37" spans="2:5">
-      <c r="B37" s="488"/>
-      <c r="C37" s="15" t="s">
-        <v>220</v>
-      </c>
-      <c r="D37" s="354" t="e">
-        <f>'Steel and alu demand'!M14</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E37" s="267" t="e">
-        <f>D37/SUM($D$37:$D$38)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="C37" s="158"/>
+      <c r="D37" s="356"/>
+      <c r="E37" s="269"/>
     </row>
     <row r="38" spans="2:5">
       <c r="B38" s="488"/>
       <c r="C38" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="D38" s="354" t="e">
+        <f>'Steel and alu demand'!M14</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E38" s="267" t="e">
+        <f>D38/SUM($D$38:$D$39)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5">
+      <c r="B39" s="488"/>
+      <c r="C39" s="15" t="s">
         <v>271</v>
       </c>
-      <c r="D38" s="354" t="e">
+      <c r="D39" s="354" t="e">
         <f>'Other energy use'!J22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E38" s="267" t="e">
-        <f>D38/SUM($D$37:$D$38)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5" ht="16" thickBot="1">
-      <c r="B39" s="490"/>
-      <c r="C39" s="161"/>
-      <c r="D39" s="357"/>
-      <c r="E39" s="162"/>
+      <c r="E39" s="267" t="e">
+        <f>D39/SUM($D$38:$D$39)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" ht="16" thickBot="1">
+      <c r="B40" s="490"/>
+      <c r="C40" s="161"/>
+      <c r="D40" s="357"/>
+      <c r="E40" s="162"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -14102,12 +14197,12 @@
       <c r="E4" s="5"/>
     </row>
     <row r="5" spans="2:5" ht="30" customHeight="1">
-      <c r="B5" s="654" t="s">
+      <c r="B5" s="655" t="s">
         <v>350</v>
       </c>
-      <c r="C5" s="668"/>
-      <c r="D5" s="668"/>
-      <c r="E5" s="655"/>
+      <c r="C5" s="669"/>
+      <c r="D5" s="669"/>
+      <c r="E5" s="656"/>
     </row>
     <row r="6" spans="2:5" ht="16" thickBot="1"/>
     <row r="7" spans="2:5">
@@ -14307,12 +14402,12 @@
       <c r="E4" s="5"/>
     </row>
     <row r="5" spans="2:7" ht="30" customHeight="1">
-      <c r="B5" s="665" t="s">
+      <c r="B5" s="666" t="s">
         <v>312</v>
       </c>
-      <c r="C5" s="666"/>
-      <c r="D5" s="666"/>
-      <c r="E5" s="667"/>
+      <c r="C5" s="667"/>
+      <c r="D5" s="667"/>
+      <c r="E5" s="668"/>
     </row>
     <row r="6" spans="2:7" ht="16" thickBot="1"/>
     <row r="7" spans="2:7">
@@ -14479,7 +14574,9 @@
   </sheetPr>
   <dimension ref="B2:O47"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -14517,14 +14614,14 @@
       <c r="G4" s="136"/>
     </row>
     <row r="5" spans="2:15" ht="29" customHeight="1">
-      <c r="B5" s="669" t="s">
+      <c r="B5" s="670" t="s">
         <v>322</v>
       </c>
-      <c r="C5" s="670"/>
-      <c r="D5" s="670"/>
-      <c r="E5" s="670"/>
-      <c r="F5" s="670"/>
-      <c r="G5" s="671"/>
+      <c r="C5" s="671"/>
+      <c r="D5" s="671"/>
+      <c r="E5" s="671"/>
+      <c r="F5" s="671"/>
+      <c r="G5" s="672"/>
     </row>
     <row r="6" spans="2:15" ht="16" thickBot="1"/>
     <row r="7" spans="2:15" s="141" customFormat="1">
@@ -14812,7 +14909,10 @@
         <f>(SUM(M12:M13))/technical_specs!D14</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G18" s="340"/>
+      <c r="G18" s="340" t="e">
+        <f>F18*share_blast_furnace_burner_coal</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="H18" s="335"/>
       <c r="I18" s="337" t="e">
         <f>F18*share_blast_furnace_burner_coal_gas</f>
@@ -14882,9 +14982,9 @@
       <c r="D21" s="149"/>
       <c r="E21" s="341"/>
       <c r="F21" s="341"/>
-      <c r="G21" s="342">
+      <c r="G21" s="342" t="e">
         <f t="shared" ref="G21:O21" si="1">SUM(G12:G20)</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="H21" s="343">
         <f t="shared" si="1"/>
@@ -15618,12 +15718,12 @@
       <c r="E4" s="5"/>
     </row>
     <row r="5" spans="2:5" ht="47" customHeight="1">
-      <c r="B5" s="654" t="s">
+      <c r="B5" s="655" t="s">
         <v>321</v>
       </c>
-      <c r="C5" s="668"/>
-      <c r="D5" s="668"/>
-      <c r="E5" s="655"/>
+      <c r="C5" s="669"/>
+      <c r="D5" s="669"/>
+      <c r="E5" s="656"/>
     </row>
     <row r="6" spans="2:5" ht="16" thickBot="1"/>
     <row r="7" spans="2:5">
@@ -15854,13 +15954,13 @@
       <c r="F4" s="118"/>
     </row>
     <row r="5" spans="2:13" ht="30" customHeight="1">
-      <c r="B5" s="672" t="s">
+      <c r="B5" s="673" t="s">
         <v>469</v>
       </c>
-      <c r="C5" s="673"/>
-      <c r="D5" s="673"/>
-      <c r="E5" s="673"/>
-      <c r="F5" s="674"/>
+      <c r="C5" s="674"/>
+      <c r="D5" s="674"/>
+      <c r="E5" s="674"/>
+      <c r="F5" s="675"/>
     </row>
     <row r="6" spans="2:13" ht="15" customHeight="1">
       <c r="B6" s="312"/>
@@ -16358,13 +16458,13 @@
       <c r="G4" s="132"/>
     </row>
     <row r="5" spans="2:15" ht="30" customHeight="1">
-      <c r="B5" s="669" t="s">
+      <c r="B5" s="670" t="s">
         <v>323</v>
       </c>
-      <c r="C5" s="670"/>
-      <c r="D5" s="670"/>
-      <c r="E5" s="670"/>
-      <c r="F5" s="671"/>
+      <c r="C5" s="671"/>
+      <c r="D5" s="671"/>
+      <c r="E5" s="671"/>
+      <c r="F5" s="672"/>
       <c r="G5" s="607"/>
     </row>
     <row r="6" spans="2:15" ht="16" thickBot="1"/>
@@ -16803,13 +16903,13 @@
       <c r="F4" s="118"/>
     </row>
     <row r="5" spans="2:10" ht="45" customHeight="1">
-      <c r="B5" s="672" t="s">
+      <c r="B5" s="673" t="s">
         <v>470</v>
       </c>
-      <c r="C5" s="673"/>
-      <c r="D5" s="673"/>
-      <c r="E5" s="673"/>
-      <c r="F5" s="674"/>
+      <c r="C5" s="674"/>
+      <c r="D5" s="674"/>
+      <c r="E5" s="674"/>
+      <c r="F5" s="675"/>
     </row>
     <row r="6" spans="2:10" ht="16" thickBot="1"/>
     <row r="7" spans="2:10">
@@ -16994,14 +17094,14 @@
       <c r="G4" s="207"/>
     </row>
     <row r="5" spans="1:12" s="208" customFormat="1" ht="75" customHeight="1">
-      <c r="B5" s="672" t="s">
+      <c r="B5" s="673" t="s">
         <v>403</v>
       </c>
-      <c r="C5" s="673"/>
-      <c r="D5" s="673"/>
-      <c r="E5" s="673"/>
-      <c r="F5" s="673"/>
-      <c r="G5" s="674"/>
+      <c r="C5" s="674"/>
+      <c r="D5" s="674"/>
+      <c r="E5" s="674"/>
+      <c r="F5" s="674"/>
+      <c r="G5" s="675"/>
     </row>
     <row r="6" spans="1:12" ht="16" thickBot="1"/>
     <row r="7" spans="1:12">
@@ -17126,9 +17226,9 @@
       <c r="C12" s="277" t="s">
         <v>337</v>
       </c>
-      <c r="D12" s="360">
+      <c r="D12" s="360" t="e">
         <f>'Steel and alu demand'!G21</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="E12" s="360">
         <f>'Steel and alu demand'!H21</f>
@@ -17168,9 +17268,9 @@
         <v>405</v>
       </c>
       <c r="C13" s="276"/>
-      <c r="D13" s="335">
+      <c r="D13" s="335" t="e">
         <f>D11-D12</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="E13" s="486" t="s">
         <v>337</v>
@@ -17372,9 +17472,9 @@
         <v>405</v>
       </c>
       <c r="C20" s="276"/>
-      <c r="D20" s="317">
+      <c r="D20" s="317" t="e">
         <f>D13</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="E20" s="447" t="s">
         <v>337</v>
@@ -17453,9 +17553,9 @@
         <v>590</v>
       </c>
       <c r="C22" s="276"/>
-      <c r="D22" s="367">
+      <c r="D22" s="367" t="e">
         <f>SUM(D20:D21)</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="E22" s="485" t="s">
         <v>337</v>
@@ -17530,9 +17630,11 @@
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
     <tabColor theme="2"/>
   </sheetPr>
-  <dimension ref="B2:D57"/>
+  <dimension ref="B2:D58"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E56" sqref="E56"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -18099,20 +18201,31 @@
         <v>1.46</v>
       </c>
     </row>
-    <row r="55" spans="2:4">
-      <c r="B55" s="196"/>
-      <c r="C55" s="198"/>
-      <c r="D55" s="221"/>
+    <row r="55" spans="2:4" ht="105" customHeight="1">
+      <c r="B55" s="196" t="s">
+        <v>621</v>
+      </c>
+      <c r="C55" s="198" t="s">
+        <v>622</v>
+      </c>
+      <c r="D55" s="221">
+        <v>1.47</v>
+      </c>
     </row>
     <row r="56" spans="2:4">
       <c r="B56" s="196"/>
-      <c r="C56" s="197"/>
+      <c r="C56" s="198"/>
       <c r="D56" s="221"/>
     </row>
     <row r="57" spans="2:4">
-      <c r="B57" s="17"/>
-      <c r="C57" s="9"/>
-      <c r="D57" s="289"/>
+      <c r="B57" s="196"/>
+      <c r="C57" s="197"/>
+      <c r="D57" s="221"/>
+    </row>
+    <row r="58" spans="2:4">
+      <c r="B58" s="17"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="289"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -18179,15 +18292,15 @@
       <c r="I4" s="8"/>
     </row>
     <row r="5" spans="2:13" ht="90" customHeight="1">
-      <c r="B5" s="672" t="s">
+      <c r="B5" s="673" t="s">
         <v>468</v>
       </c>
-      <c r="C5" s="673"/>
-      <c r="D5" s="673"/>
-      <c r="E5" s="673"/>
-      <c r="F5" s="673"/>
-      <c r="G5" s="673"/>
-      <c r="H5" s="674"/>
+      <c r="C5" s="674"/>
+      <c r="D5" s="674"/>
+      <c r="E5" s="674"/>
+      <c r="F5" s="674"/>
+      <c r="G5" s="674"/>
+      <c r="H5" s="675"/>
       <c r="I5" s="8"/>
     </row>
     <row r="6" spans="2:13" ht="16" thickBot="1"/>
@@ -19058,9 +19171,9 @@
         <f>'Final demand'!B19</f>
         <v>Industry - Steel</v>
       </c>
-      <c r="B10" s="525">
+      <c r="B10" s="525" t="e">
         <f>'Final demand'!C19</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="C10" s="525" t="str">
         <f>'Final demand'!D19</f>
@@ -19142,9 +19255,9 @@
         <f>'Final demand'!B21</f>
         <v>Industry - Other metals</v>
       </c>
-      <c r="B12" s="525">
+      <c r="B12" s="525" t="e">
         <f>'Final demand'!C21</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="C12" s="525" t="str">
         <f>'Final demand'!D21</f>
@@ -19191,6 +19304,63 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <tabColor theme="7" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="44.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>363</v>
+      </c>
+      <c r="B3" s="517" t="e">
+        <f>'Shares per carrier per tech'!E22</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>365</v>
+      </c>
+      <c r="B4" s="517" t="e">
+        <f>'Shares per carrier per tech'!E23</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet23" enableFormatConditionsCalculation="0">
     <tabColor theme="7" tint="0.39997558519241921"/>
@@ -19309,7 +19479,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet24" enableFormatConditionsCalculation="0">
     <tabColor theme="7" tint="0.39997558519241921"/>
@@ -19341,7 +19511,7 @@
         <v>363</v>
       </c>
       <c r="B3" s="517" t="e">
-        <f>'Shares per carrier per tech'!E28</f>
+        <f>'Shares per carrier per tech'!E29</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -19350,7 +19520,7 @@
         <v>362</v>
       </c>
       <c r="B4" s="517" t="e">
-        <f>'Shares per carrier per tech'!E29</f>
+        <f>'Shares per carrier per tech'!E30</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -19359,7 +19529,7 @@
         <v>364</v>
       </c>
       <c r="B5" s="517" t="e">
-        <f>'Shares per carrier per tech'!E30</f>
+        <f>'Shares per carrier per tech'!E31</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -19368,7 +19538,7 @@
         <v>365</v>
       </c>
       <c r="B6" s="517" t="e">
-        <f>'Shares per carrier per tech'!E31</f>
+        <f>'Shares per carrier per tech'!E32</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -19382,7 +19552,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet25" enableFormatConditionsCalculation="0">
     <tabColor theme="7" tint="0.39997558519241921"/>
@@ -19414,7 +19584,7 @@
         <v>357</v>
       </c>
       <c r="B3" s="517" t="e">
-        <f>'Shares per carrier per tech'!E37</f>
+        <f>'Shares per carrier per tech'!E38</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -19423,7 +19593,7 @@
         <v>366</v>
       </c>
       <c r="B4" s="517" t="e">
-        <f>'Shares per carrier per tech'!E38</f>
+        <f>'Shares per carrier per tech'!E39</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -19437,7 +19607,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet26" enableFormatConditionsCalculation="0">
     <tabColor theme="7" tint="0.39997558519241921"/>
@@ -19526,7 +19696,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet27" enableFormatConditionsCalculation="0">
     <tabColor theme="7" tint="0.39997558519241921"/>
@@ -19600,7 +19770,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet35" enableFormatConditionsCalculation="0">
     <tabColor theme="7" tint="0.39997558519241921"/>
@@ -19652,7 +19822,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet36" enableFormatConditionsCalculation="0">
     <tabColor theme="7" tint="0.39997558519241921"/>
@@ -19690,192 +19860,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet31" enableFormatConditionsCalculation="0">
-    <tabColor theme="7" tint="0.39997558519241921"/>
-  </sheetPr>
-  <dimension ref="A1:D24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="62.1640625" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="231" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="231" t="s">
-        <v>297</v>
-      </c>
-      <c r="B2" s="231" t="s">
-        <v>291</v>
-      </c>
-      <c r="D2" s="231"/>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="231" t="s">
-        <v>454</v>
-      </c>
-      <c r="B3" s="292" t="e">
-        <f>'Steel and alu eff'!H13</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D3" s="231"/>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="231" t="s">
-        <v>455</v>
-      </c>
-      <c r="B4" s="292" t="e">
-        <f>'Steel and alu eff'!I13</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D4" s="231"/>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="231" t="s">
-        <v>443</v>
-      </c>
-      <c r="B5" s="189" t="e">
-        <f>'Steel and alu eff'!K13</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D5" s="231"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="231"/>
-      <c r="B6" s="231"/>
-      <c r="C6" s="189"/>
-      <c r="D6" s="231"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="231"/>
-      <c r="B7" s="231"/>
-      <c r="C7" s="189"/>
-      <c r="D7" s="231"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="231"/>
-      <c r="B8" s="231"/>
-      <c r="C8" s="189"/>
-      <c r="D8" s="231"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="231"/>
-      <c r="B9" s="231"/>
-      <c r="C9" s="189"/>
-      <c r="D9" s="231"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="231"/>
-      <c r="B10" s="231"/>
-      <c r="C10" s="189"/>
-      <c r="D10" s="231"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="231"/>
-      <c r="B11" s="231"/>
-      <c r="C11" s="189"/>
-      <c r="D11" s="231"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="231"/>
-      <c r="B12" s="231"/>
-      <c r="C12" s="189"/>
-      <c r="D12" s="231"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="231"/>
-      <c r="B13" s="231"/>
-      <c r="C13" s="189"/>
-      <c r="D13" s="231"/>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="231"/>
-      <c r="B14" s="231"/>
-      <c r="C14" s="189"/>
-      <c r="D14" s="231"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="231"/>
-      <c r="B15" s="231"/>
-      <c r="C15" s="189"/>
-      <c r="D15" s="231"/>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="231"/>
-      <c r="B16" s="231"/>
-      <c r="C16" s="189"/>
-      <c r="D16" s="231"/>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="231"/>
-      <c r="B17" s="231"/>
-      <c r="C17" s="189"/>
-      <c r="D17" s="231"/>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="231"/>
-      <c r="B18" s="231"/>
-      <c r="C18" s="189"/>
-      <c r="D18" s="231"/>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="231"/>
-      <c r="B19" s="231"/>
-      <c r="C19" s="189"/>
-      <c r="D19" s="231"/>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="231"/>
-      <c r="B20" s="231"/>
-      <c r="C20" s="189"/>
-      <c r="D20" s="231"/>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="231"/>
-      <c r="B21" s="231"/>
-      <c r="C21" s="189"/>
-      <c r="D21" s="231"/>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="231"/>
-      <c r="B22" s="231"/>
-      <c r="C22" s="189"/>
-      <c r="D22" s="231"/>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="231"/>
-      <c r="B23" s="231"/>
-      <c r="C23" s="189"/>
-      <c r="D23" s="231"/>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="231"/>
-      <c r="B24" s="231"/>
-      <c r="C24" s="189"/>
-      <c r="D24" s="231"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -20199,6 +20183,192 @@
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet31" enableFormatConditionsCalculation="0">
+    <tabColor theme="7" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:D24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="62.1640625" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="231" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="231" t="s">
+        <v>297</v>
+      </c>
+      <c r="B2" s="231" t="s">
+        <v>291</v>
+      </c>
+      <c r="D2" s="231"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="231" t="s">
+        <v>454</v>
+      </c>
+      <c r="B3" s="292" t="e">
+        <f>'Steel and alu eff'!H13</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D3" s="231"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="231" t="s">
+        <v>455</v>
+      </c>
+      <c r="B4" s="292" t="e">
+        <f>'Steel and alu eff'!I13</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D4" s="231"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="231" t="s">
+        <v>443</v>
+      </c>
+      <c r="B5" s="189" t="e">
+        <f>'Steel and alu eff'!K13</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D5" s="231"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="231"/>
+      <c r="B6" s="231"/>
+      <c r="C6" s="189"/>
+      <c r="D6" s="231"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="231"/>
+      <c r="B7" s="231"/>
+      <c r="C7" s="189"/>
+      <c r="D7" s="231"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="231"/>
+      <c r="B8" s="231"/>
+      <c r="C8" s="189"/>
+      <c r="D8" s="231"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="231"/>
+      <c r="B9" s="231"/>
+      <c r="C9" s="189"/>
+      <c r="D9" s="231"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="231"/>
+      <c r="B10" s="231"/>
+      <c r="C10" s="189"/>
+      <c r="D10" s="231"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="231"/>
+      <c r="B11" s="231"/>
+      <c r="C11" s="189"/>
+      <c r="D11" s="231"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="231"/>
+      <c r="B12" s="231"/>
+      <c r="C12" s="189"/>
+      <c r="D12" s="231"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="231"/>
+      <c r="B13" s="231"/>
+      <c r="C13" s="189"/>
+      <c r="D13" s="231"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="231"/>
+      <c r="B14" s="231"/>
+      <c r="C14" s="189"/>
+      <c r="D14" s="231"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="231"/>
+      <c r="B15" s="231"/>
+      <c r="C15" s="189"/>
+      <c r="D15" s="231"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="231"/>
+      <c r="B16" s="231"/>
+      <c r="C16" s="189"/>
+      <c r="D16" s="231"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="231"/>
+      <c r="B17" s="231"/>
+      <c r="C17" s="189"/>
+      <c r="D17" s="231"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="231"/>
+      <c r="B18" s="231"/>
+      <c r="C18" s="189"/>
+      <c r="D18" s="231"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="231"/>
+      <c r="B19" s="231"/>
+      <c r="C19" s="189"/>
+      <c r="D19" s="231"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="231"/>
+      <c r="B20" s="231"/>
+      <c r="C20" s="189"/>
+      <c r="D20" s="231"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="231"/>
+      <c r="B21" s="231"/>
+      <c r="C21" s="189"/>
+      <c r="D21" s="231"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="231"/>
+      <c r="B22" s="231"/>
+      <c r="C22" s="189"/>
+      <c r="D22" s="231"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="231"/>
+      <c r="B23" s="231"/>
+      <c r="C23" s="189"/>
+      <c r="D23" s="231"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="231"/>
+      <c r="B24" s="231"/>
+      <c r="C24" s="189"/>
+      <c r="D24" s="231"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet32" enableFormatConditionsCalculation="0">
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
@@ -20383,7 +20553,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet33" enableFormatConditionsCalculation="0">
     <tabColor theme="7" tint="0.39997558519241921"/>
@@ -20455,7 +20625,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet34" enableFormatConditionsCalculation="0">
     <tabColor theme="7" tint="0.39997558519241921"/>
@@ -20518,7 +20688,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="7" tint="0.39997558519241921"/>
@@ -21184,9 +21354,11 @@
   <sheetPr codeName="Sheet6" enableFormatConditionsCalculation="0">
     <tabColor theme="2"/>
   </sheetPr>
-  <dimension ref="B2:D123"/>
+  <dimension ref="B2:D124"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -21209,10 +21381,10 @@
       <c r="C4" s="610"/>
     </row>
     <row r="5" spans="2:3" ht="75" customHeight="1">
-      <c r="B5" s="654" t="s">
+      <c r="B5" s="655" t="s">
         <v>412</v>
       </c>
-      <c r="C5" s="655"/>
+      <c r="C5" s="656"/>
     </row>
     <row r="6" spans="2:3" ht="16" thickBot="1"/>
     <row r="7" spans="2:3">
@@ -21359,17 +21531,17 @@
     </row>
     <row r="28" spans="2:4">
       <c r="B28" s="627"/>
-      <c r="C28" s="198" t="s">
-        <v>314</v>
-      </c>
-      <c r="D28" s="619" t="s">
+      <c r="C28" s="623" t="s">
+        <v>623</v>
+      </c>
+      <c r="D28" s="630" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="29" spans="2:4">
       <c r="B29" s="627"/>
       <c r="C29" s="198" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D29" s="619" t="s">
         <v>313</v>
@@ -21377,38 +21549,38 @@
     </row>
     <row r="30" spans="2:4">
       <c r="B30" s="627"/>
-      <c r="C30" s="631"/>
-      <c r="D30" s="630"/>
+      <c r="C30" s="198" t="s">
+        <v>315</v>
+      </c>
+      <c r="D30" s="619" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="31" spans="2:4">
-      <c r="B31" s="627" t="s">
-        <v>227</v>
-      </c>
+      <c r="B31" s="627"/>
       <c r="C31" s="631"/>
       <c r="D31" s="630"/>
     </row>
-    <row r="32" spans="2:4" ht="30">
-      <c r="B32" s="627"/>
-      <c r="C32" s="198" t="s">
+    <row r="32" spans="2:4">
+      <c r="B32" s="627" t="s">
         <v>227</v>
       </c>
-      <c r="D32" s="619" t="s">
+      <c r="C32" s="631"/>
+      <c r="D32" s="630"/>
+    </row>
+    <row r="33" spans="2:4" ht="30">
+      <c r="B33" s="627"/>
+      <c r="C33" s="198" t="s">
+        <v>227</v>
+      </c>
+      <c r="D33" s="619" t="s">
         <v>348</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4">
-      <c r="B33" s="632"/>
-      <c r="C33" s="198" t="s">
-        <v>223</v>
-      </c>
-      <c r="D33" s="619" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="34" spans="2:4">
       <c r="B34" s="632"/>
       <c r="C34" s="198" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D34" s="619" t="s">
         <v>313</v>
@@ -21417,16 +21589,16 @@
     <row r="35" spans="2:4">
       <c r="B35" s="632"/>
       <c r="C35" s="198" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D35" s="619" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="36" spans="2:4">
-      <c r="B36" s="633"/>
+      <c r="B36" s="632"/>
       <c r="C36" s="198" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D36" s="619" t="s">
         <v>313</v>
@@ -21434,516 +21606,525 @@
     </row>
     <row r="37" spans="2:4">
       <c r="B37" s="633"/>
-      <c r="C37" s="634"/>
-      <c r="D37" s="635"/>
-    </row>
-    <row r="38" spans="2:4" ht="16" thickBot="1">
-      <c r="B38" s="636"/>
-      <c r="C38" s="637"/>
-      <c r="D38" s="638"/>
-    </row>
-    <row r="39" spans="2:4" ht="16" thickBot="1"/>
-    <row r="40" spans="2:4">
-      <c r="B40" s="611" t="s">
+      <c r="C37" s="198" t="s">
+        <v>226</v>
+      </c>
+      <c r="D37" s="619" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4">
+      <c r="B38" s="633"/>
+      <c r="C38" s="634"/>
+      <c r="D38" s="635"/>
+    </row>
+    <row r="39" spans="2:4" ht="16" thickBot="1">
+      <c r="B39" s="636"/>
+      <c r="C39" s="637"/>
+      <c r="D39" s="638"/>
+    </row>
+    <row r="40" spans="2:4" ht="16" thickBot="1"/>
+    <row r="41" spans="2:4">
+      <c r="B41" s="611" t="s">
         <v>193</v>
       </c>
-      <c r="C40" s="625"/>
-    </row>
-    <row r="41" spans="2:4">
-      <c r="B41" s="613"/>
-      <c r="C41" s="614"/>
+      <c r="C41" s="625"/>
     </row>
     <row r="42" spans="2:4">
-      <c r="B42" s="615" t="s">
+      <c r="B42" s="613"/>
+      <c r="C42" s="614"/>
+    </row>
+    <row r="43" spans="2:4">
+      <c r="B43" s="615" t="s">
         <v>413</v>
       </c>
-      <c r="C42" s="639" t="s">
+      <c r="C43" s="639" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="43" spans="2:4">
-      <c r="B43" s="640" t="s">
+    <row r="44" spans="2:4">
+      <c r="B44" s="640" t="s">
         <v>194</v>
       </c>
-      <c r="C43" s="641" t="s">
+      <c r="C44" s="641" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="44" spans="2:4">
-      <c r="B44" s="613"/>
-      <c r="C44" s="641" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="45" spans="2:4">
       <c r="B45" s="613"/>
       <c r="C45" s="641" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="46" spans="2:4">
       <c r="B46" s="613"/>
       <c r="C46" s="641" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="47" spans="2:4">
       <c r="B47" s="613"/>
       <c r="C47" s="641" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="48" spans="2:4">
       <c r="B48" s="613"/>
       <c r="C48" s="641" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="49" spans="2:3">
       <c r="B49" s="613"/>
-      <c r="C49" s="642" t="s">
+      <c r="C49" s="641" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3">
+      <c r="B50" s="613"/>
+      <c r="C50" s="642" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="50" spans="2:3">
-      <c r="B50" s="627"/>
-      <c r="C50" s="642" t="s">
+    <row r="51" spans="2:3">
+      <c r="B51" s="627"/>
+      <c r="C51" s="642" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="51" spans="2:3">
-      <c r="B51" s="613"/>
-      <c r="C51" s="641" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="52" spans="2:3">
       <c r="B52" s="613"/>
-      <c r="C52" s="642" t="s">
-        <v>402</v>
+      <c r="C52" s="641" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="53" spans="2:3">
       <c r="B53" s="613"/>
-      <c r="C53" s="641" t="s">
-        <v>42</v>
+      <c r="C53" s="642" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="54" spans="2:3">
       <c r="B54" s="613"/>
       <c r="C54" s="641" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="55" spans="2:3">
       <c r="B55" s="613"/>
-      <c r="C55" s="642" t="s">
-        <v>44</v>
+      <c r="C55" s="641" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="56" spans="2:3">
       <c r="B56" s="613"/>
-      <c r="C56" s="642"/>
+      <c r="C56" s="642" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="57" spans="2:3">
-      <c r="B57" s="643" t="s">
+      <c r="B57" s="613"/>
+      <c r="C57" s="642"/>
+    </row>
+    <row r="58" spans="2:3">
+      <c r="B58" s="643" t="s">
         <v>206</v>
       </c>
-      <c r="C57" s="644" t="s">
+      <c r="C58" s="644" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="58" spans="2:3">
-      <c r="B58" s="645"/>
-      <c r="C58" s="646"/>
-    </row>
     <row r="59" spans="2:3">
-      <c r="B59" s="643" t="s">
+      <c r="B59" s="645"/>
+      <c r="C59" s="646"/>
+    </row>
+    <row r="60" spans="2:3">
+      <c r="B60" s="643" t="s">
         <v>207</v>
       </c>
-      <c r="C59" s="641" t="s">
+      <c r="C60" s="641" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="60" spans="2:3">
-      <c r="B60" s="640"/>
-      <c r="C60" s="641" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="61" spans="2:3">
       <c r="B61" s="640"/>
-      <c r="C61" s="642" t="s">
+      <c r="C61" s="641" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3">
+      <c r="B62" s="640"/>
+      <c r="C62" s="642" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="62" spans="2:3">
-      <c r="B62" s="645"/>
-      <c r="C62" s="646"/>
-    </row>
     <row r="63" spans="2:3">
-      <c r="B63" s="640" t="s">
+      <c r="B63" s="645"/>
+      <c r="C63" s="646"/>
+    </row>
+    <row r="64" spans="2:3">
+      <c r="B64" s="640" t="s">
         <v>270</v>
       </c>
-      <c r="C63" s="641" t="s">
+      <c r="C64" s="641" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="64" spans="2:3">
-      <c r="B64" s="640"/>
-      <c r="C64" s="641" t="s">
+    <row r="65" spans="2:3">
+      <c r="B65" s="640"/>
+      <c r="C65" s="641" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="65" spans="2:3">
-      <c r="B65" s="645"/>
-      <c r="C65" s="646"/>
-    </row>
     <row r="66" spans="2:3">
-      <c r="B66" s="640" t="s">
+      <c r="B66" s="645"/>
+      <c r="C66" s="646"/>
+    </row>
+    <row r="67" spans="2:3">
+      <c r="B67" s="640" t="s">
         <v>51</v>
       </c>
-      <c r="C66" s="641" t="s">
+      <c r="C67" s="641" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="67" spans="2:3">
-      <c r="B67" s="640"/>
-      <c r="C67" s="641" t="s">
+    <row r="68" spans="2:3">
+      <c r="B68" s="640"/>
+      <c r="C68" s="641" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="68" spans="2:3">
-      <c r="B68" s="613"/>
-      <c r="C68" s="641" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="69" spans="2:3">
       <c r="B69" s="613"/>
       <c r="C69" s="641" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="70" spans="2:3">
       <c r="B70" s="613"/>
       <c r="C70" s="641" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="71" spans="2:3">
       <c r="B71" s="613"/>
       <c r="C71" s="641" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="72" spans="2:3">
       <c r="B72" s="613"/>
       <c r="C72" s="641" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="73" spans="2:3">
       <c r="B73" s="613"/>
       <c r="C73" s="641" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="74" spans="2:3">
       <c r="B74" s="613"/>
       <c r="C74" s="641" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="75" spans="2:3">
       <c r="B75" s="613"/>
       <c r="C75" s="641" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="76" spans="2:3">
       <c r="B76" s="613"/>
       <c r="C76" s="641" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="77" spans="2:3">
       <c r="B77" s="613"/>
       <c r="C77" s="641" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="78" spans="2:3">
       <c r="B78" s="613"/>
       <c r="C78" s="641" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="79" spans="2:3">
       <c r="B79" s="613"/>
       <c r="C79" s="641" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="80" spans="2:3">
       <c r="B80" s="613"/>
       <c r="C80" s="641" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="81" spans="2:3">
       <c r="B81" s="613"/>
       <c r="C81" s="641" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="82" spans="2:3">
       <c r="B82" s="613"/>
       <c r="C82" s="641" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="83" spans="2:3">
       <c r="B83" s="613"/>
       <c r="C83" s="641" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="84" spans="2:3">
       <c r="B84" s="613"/>
       <c r="C84" s="641" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="85" spans="2:3">
       <c r="B85" s="613"/>
       <c r="C85" s="641" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="86" spans="2:3">
       <c r="B86" s="613"/>
       <c r="C86" s="641" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="87" spans="2:3">
       <c r="B87" s="613"/>
       <c r="C87" s="641" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="88" spans="2:3">
       <c r="B88" s="613"/>
       <c r="C88" s="641" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3">
+      <c r="B89" s="613"/>
+      <c r="C89" s="641" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="89" spans="2:3">
-      <c r="B89" s="647"/>
-      <c r="C89" s="646"/>
-    </row>
     <row r="90" spans="2:3">
-      <c r="B90" s="640" t="s">
+      <c r="B90" s="647"/>
+      <c r="C90" s="646"/>
+    </row>
+    <row r="91" spans="2:3">
+      <c r="B91" s="640" t="s">
         <v>196</v>
       </c>
-      <c r="C90" s="641" t="s">
+      <c r="C91" s="641" t="s">
         <v>80</v>
-      </c>
-    </row>
-    <row r="91" spans="2:3">
-      <c r="B91" s="613"/>
-      <c r="C91" s="641" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="92" spans="2:3">
       <c r="B92" s="613"/>
-      <c r="C92" s="641"/>
+      <c r="C92" s="641" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="93" spans="2:3">
-      <c r="B93" s="643" t="s">
+      <c r="B93" s="613"/>
+      <c r="C93" s="641"/>
+    </row>
+    <row r="94" spans="2:3">
+      <c r="B94" s="643" t="s">
         <v>104</v>
       </c>
-      <c r="C93" s="648" t="s">
+      <c r="C94" s="648" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="94" spans="2:3">
-      <c r="B94" s="640"/>
-      <c r="C94" s="641"/>
-    </row>
     <row r="95" spans="2:3">
-      <c r="B95" s="643" t="s">
+      <c r="B95" s="640"/>
+      <c r="C95" s="641"/>
+    </row>
+    <row r="96" spans="2:3">
+      <c r="B96" s="643" t="s">
         <v>103</v>
       </c>
-      <c r="C95" s="648" t="s">
+      <c r="C96" s="648" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="96" spans="2:3">
-      <c r="B96" s="645"/>
-      <c r="C96" s="646"/>
-    </row>
     <row r="97" spans="2:3">
-      <c r="B97" s="640" t="s">
+      <c r="B97" s="645"/>
+      <c r="C97" s="646"/>
+    </row>
+    <row r="98" spans="2:3">
+      <c r="B98" s="640" t="s">
         <v>82</v>
       </c>
-      <c r="C97" s="641" t="s">
+      <c r="C98" s="641" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="98" spans="2:3">
-      <c r="B98" s="640"/>
-      <c r="C98" s="641" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="99" spans="2:3">
       <c r="B99" s="640"/>
       <c r="C99" s="641" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="100" spans="2:3">
       <c r="B100" s="640"/>
       <c r="C100" s="641" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="101" spans="2:3">
       <c r="B101" s="640"/>
       <c r="C101" s="641" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="102" spans="2:3">
       <c r="B102" s="640"/>
       <c r="C102" s="641" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="103" spans="2:3">
       <c r="B103" s="640"/>
       <c r="C103" s="641" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="104" spans="2:3">
+      <c r="B104" s="640"/>
+      <c r="C104" s="641" t="s">
         <v>79</v>
-      </c>
-    </row>
-    <row r="104" spans="2:3">
-      <c r="B104" s="613"/>
-      <c r="C104" s="641" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="105" spans="2:3">
       <c r="B105" s="613"/>
       <c r="C105" s="641" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="106" spans="2:3">
       <c r="B106" s="613"/>
       <c r="C106" s="641" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="107" spans="2:3">
+      <c r="B107" s="613"/>
+      <c r="C107" s="641" t="s">
         <v>97</v>
-      </c>
-    </row>
-    <row r="107" spans="2:3">
-      <c r="B107" s="640"/>
-      <c r="C107" s="641" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="108" spans="2:3">
       <c r="B108" s="640"/>
       <c r="C108" s="641" t="s">
-        <v>197</v>
+        <v>98</v>
       </c>
     </row>
     <row r="109" spans="2:3">
       <c r="B109" s="640"/>
       <c r="C109" s="641" t="s">
-        <v>100</v>
+        <v>197</v>
       </c>
     </row>
     <row r="110" spans="2:3">
       <c r="B110" s="640"/>
       <c r="C110" s="641" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="111" spans="2:3">
       <c r="B111" s="640"/>
       <c r="C111" s="641" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="112" spans="2:3">
       <c r="B112" s="640"/>
       <c r="C112" s="641" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
     </row>
     <row r="113" spans="2:4">
       <c r="B113" s="640"/>
       <c r="C113" s="641" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="114" spans="2:4">
+      <c r="B114" s="640"/>
+      <c r="C114" s="641" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="114" spans="2:4">
-      <c r="B114" s="613"/>
-      <c r="C114" s="649" t="s">
+    <row r="115" spans="2:4">
+      <c r="B115" s="613"/>
+      <c r="C115" s="649" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="115" spans="2:4" ht="16" thickBot="1">
-      <c r="B115" s="620"/>
-      <c r="C115" s="650"/>
-    </row>
-    <row r="116" spans="2:4" ht="16" thickBot="1"/>
-    <row r="117" spans="2:4">
-      <c r="B117" s="611" t="s">
+    <row r="116" spans="2:4" ht="16" thickBot="1">
+      <c r="B116" s="620"/>
+      <c r="C116" s="650"/>
+    </row>
+    <row r="117" spans="2:4" ht="16" thickBot="1"/>
+    <row r="118" spans="2:4">
+      <c r="B118" s="611" t="s">
         <v>208</v>
       </c>
-      <c r="C117" s="612"/>
-      <c r="D117" s="622"/>
-    </row>
-    <row r="118" spans="2:4">
-      <c r="B118" s="613"/>
-      <c r="C118" s="614"/>
+      <c r="C118" s="612"/>
       <c r="D118" s="622"/>
     </row>
     <row r="119" spans="2:4">
-      <c r="B119" s="615" t="s">
+      <c r="B119" s="613"/>
+      <c r="C119" s="614"/>
+      <c r="D119" s="622"/>
+    </row>
+    <row r="120" spans="2:4">
+      <c r="B120" s="615" t="s">
         <v>29</v>
       </c>
-      <c r="C119" s="639" t="s">
+      <c r="C120" s="639" t="s">
         <v>30</v>
       </c>
-      <c r="D119" s="651"/>
-    </row>
-    <row r="120" spans="2:4">
-      <c r="B120" s="652"/>
-      <c r="C120" s="618"/>
       <c r="D120" s="651"/>
     </row>
     <row r="121" spans="2:4">
-      <c r="B121" s="613" t="s">
+      <c r="B121" s="652"/>
+      <c r="C121" s="618"/>
+      <c r="D121" s="651"/>
+    </row>
+    <row r="122" spans="2:4">
+      <c r="B122" s="613" t="s">
         <v>202</v>
       </c>
-      <c r="C121" s="614">
+      <c r="C122" s="614">
         <v>3.6</v>
       </c>
-      <c r="D121" s="622"/>
-    </row>
-    <row r="122" spans="2:4" ht="16" thickBot="1">
-      <c r="B122" s="620"/>
-      <c r="C122" s="621"/>
       <c r="D122" s="622"/>
     </row>
-    <row r="123" spans="2:4">
-      <c r="B123" s="622"/>
-      <c r="C123" s="622"/>
+    <row r="123" spans="2:4" ht="16" thickBot="1">
+      <c r="B123" s="620"/>
+      <c r="C123" s="621"/>
       <c r="D123" s="622"/>
+    </row>
+    <row r="124" spans="2:4">
+      <c r="B124" s="622"/>
+      <c r="C124" s="622"/>
+      <c r="D124" s="622"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -21964,9 +22145,11 @@
   <sheetPr codeName="Sheet7" enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A2:P65"/>
+  <dimension ref="A2:P66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -22018,32 +22201,32 @@
       <c r="K4" s="7"/>
     </row>
     <row r="5" spans="2:16">
-      <c r="B5" s="656" t="s">
+      <c r="B5" s="657" t="s">
         <v>592</v>
       </c>
-      <c r="C5" s="657"/>
-      <c r="D5" s="657"/>
-      <c r="E5" s="658"/>
+      <c r="C5" s="658"/>
+      <c r="D5" s="658"/>
+      <c r="E5" s="659"/>
       <c r="F5" s="8"/>
       <c r="I5" s="526"/>
       <c r="J5" s="8"/>
       <c r="K5" s="7"/>
     </row>
     <row r="6" spans="2:16">
-      <c r="B6" s="656"/>
-      <c r="C6" s="657"/>
-      <c r="D6" s="657"/>
-      <c r="E6" s="658"/>
+      <c r="B6" s="657"/>
+      <c r="C6" s="658"/>
+      <c r="D6" s="658"/>
+      <c r="E6" s="659"/>
       <c r="F6" s="8"/>
       <c r="I6" s="423"/>
       <c r="J6" s="8"/>
       <c r="K6" s="7"/>
     </row>
     <row r="7" spans="2:16" ht="60" customHeight="1">
-      <c r="B7" s="659"/>
-      <c r="C7" s="660"/>
-      <c r="D7" s="660"/>
-      <c r="E7" s="661"/>
+      <c r="B7" s="660"/>
+      <c r="C7" s="661"/>
+      <c r="D7" s="661"/>
+      <c r="E7" s="662"/>
       <c r="F7" s="283"/>
       <c r="I7" s="520"/>
       <c r="J7" s="9"/>
@@ -22193,7 +22376,7 @@
         <v>199</v>
       </c>
       <c r="L14" s="574" t="b">
-        <f>IF(COUNTBLANK(C13:C45)-COUNTBLANK(E13:E45)=0,TRUE,FALSE)</f>
+        <f>IF(COUNTBLANK(C13:C46)-COUNTBLANK(E13:E46)=0,TRUE,FALSE)</f>
         <v>0</v>
       </c>
       <c r="M14" s="578" t="str">
@@ -22408,15 +22591,15 @@
       <c r="P23" s="424"/>
     </row>
     <row r="24" spans="1:16" ht="16" thickBot="1">
-      <c r="B24" s="27"/>
-      <c r="C24" s="414" t="s">
-        <v>239</v>
+      <c r="B24" s="32"/>
+      <c r="C24" s="8" t="s">
+        <v>617</v>
       </c>
       <c r="D24" s="295"/>
       <c r="E24" s="315"/>
-      <c r="F24" s="411"/>
+      <c r="F24" s="293"/>
       <c r="G24" s="418" t="s">
-        <v>514</v>
+        <v>618</v>
       </c>
       <c r="H24" s="8"/>
       <c r="I24" s="20"/>
@@ -22425,7 +22608,7 @@
         <v>184</v>
       </c>
       <c r="L24" s="575">
-        <f>IF(SUM(E24:E25)=1,TRUE,SUM(E24:E25))</f>
+        <f>IF(SUM(E24:E26)=1,TRUE,SUM(E24:E26))</f>
         <v>0</v>
       </c>
       <c r="M24" s="579" t="str">
@@ -22434,7 +22617,7 @@
       </c>
       <c r="N24" s="8"/>
       <c r="O24" s="423" t="s">
-        <v>487</v>
+        <v>619</v>
       </c>
       <c r="P24" s="7">
         <f>IF(L24=TRUE,1,0)</f>
@@ -22444,52 +22627,55 @@
     <row r="25" spans="1:16" ht="16" thickBot="1">
       <c r="B25" s="27"/>
       <c r="C25" s="414" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D25" s="295"/>
-      <c r="E25" s="316"/>
-      <c r="F25" s="293"/>
+      <c r="E25" s="315"/>
+      <c r="F25" s="411"/>
       <c r="G25" s="418" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H25" s="8"/>
       <c r="I25" s="20"/>
       <c r="J25" s="8"/>
       <c r="K25" s="40"/>
-      <c r="L25" s="405"/>
-      <c r="M25" s="579"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="578"/>
       <c r="N25" s="8"/>
       <c r="O25" s="423" t="s">
-        <v>488</v>
-      </c>
-      <c r="P25" s="424"/>
-    </row>
-    <row r="26" spans="1:16">
+        <v>487</v>
+      </c>
+      <c r="P25" s="7"/>
+    </row>
+    <row r="26" spans="1:16" ht="16" thickBot="1">
       <c r="B26" s="27"/>
-      <c r="C26" s="8"/>
+      <c r="C26" s="414" t="s">
+        <v>240</v>
+      </c>
       <c r="D26" s="295"/>
-      <c r="E26" s="302"/>
-      <c r="F26" s="302"/>
-      <c r="G26" s="414"/>
+      <c r="E26" s="316"/>
+      <c r="F26" s="293"/>
+      <c r="G26" s="418" t="s">
+        <v>515</v>
+      </c>
       <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
+      <c r="I26" s="20"/>
       <c r="J26" s="8"/>
       <c r="K26" s="40"/>
       <c r="L26" s="405"/>
       <c r="M26" s="579"/>
       <c r="N26" s="8"/>
-      <c r="O26" s="423"/>
+      <c r="O26" s="423" t="s">
+        <v>488</v>
+      </c>
       <c r="P26" s="424"/>
     </row>
     <row r="27" spans="1:16">
-      <c r="A27" s="8"/>
-      <c r="B27" s="32" t="s">
-        <v>499</v>
-      </c>
+      <c r="B27" s="27"/>
       <c r="C27" s="8"/>
       <c r="D27" s="295"/>
-      <c r="E27" s="74"/>
-      <c r="F27" s="74"/>
+      <c r="E27" s="302"/>
+      <c r="F27" s="302"/>
       <c r="G27" s="414"/>
       <c r="H27" s="8"/>
       <c r="I27" s="8"/>
@@ -22503,17 +22689,12 @@
     </row>
     <row r="28" spans="1:16">
       <c r="A28" s="8"/>
-      <c r="B28" s="32"/>
-      <c r="C28" s="8" t="s">
-        <v>593</v>
-      </c>
-      <c r="D28" s="295" t="s">
-        <v>339</v>
-      </c>
-      <c r="E28" s="215">
-        <f>SUM('Fuel aggregation'!E11:E12)</f>
-        <v>0</v>
-      </c>
+      <c r="B28" s="32" t="s">
+        <v>499</v>
+      </c>
+      <c r="C28" s="8"/>
+      <c r="D28" s="295"/>
+      <c r="E28" s="74"/>
       <c r="F28" s="74"/>
       <c r="G28" s="414"/>
       <c r="H28" s="8"/>
@@ -22528,33 +22709,25 @@
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="8"/>
-      <c r="B29" s="27"/>
-      <c r="C29" s="587" t="s">
-        <v>460</v>
+      <c r="B29" s="32"/>
+      <c r="C29" s="8" t="s">
+        <v>593</v>
       </c>
       <c r="D29" s="295" t="s">
         <v>339</v>
       </c>
-      <c r="E29" s="218" t="e">
-        <f>SUM('Fuel aggregation'!E11:E12)-SUM('Final demand'!C11:C12)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F29" s="218"/>
+      <c r="E29" s="215">
+        <f>SUM('Fuel aggregation'!E11:E12)</f>
+        <v>0</v>
+      </c>
+      <c r="F29" s="74"/>
       <c r="G29" s="414"/>
       <c r="H29" s="8"/>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
-      <c r="K29" s="40" t="s">
-        <v>342</v>
-      </c>
-      <c r="L29" s="585" t="e">
-        <f>IF(ABS(E29)/SUM(ABS('Fuel aggregation'!E11),ABS('Fuel aggregation'!E12))&lt;0.01,TRUE,FALSE)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M29" s="579" t="e">
-        <f>IF(L29=TRUE," ","This error should be as close to zero as possible.")</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="K29" s="40"/>
+      <c r="L29" s="405"/>
+      <c r="M29" s="579"/>
       <c r="N29" s="8"/>
       <c r="O29" s="423"/>
       <c r="P29" s="424"/>
@@ -22562,24 +22735,32 @@
     <row r="30" spans="1:16">
       <c r="A30" s="8"/>
       <c r="B30" s="27"/>
-      <c r="C30" s="8" t="s">
-        <v>594</v>
+      <c r="C30" s="587" t="s">
+        <v>460</v>
       </c>
       <c r="D30" s="295" t="s">
         <v>339</v>
       </c>
-      <c r="E30" s="218">
-        <f>SUM('Fuel aggregation'!F11:F12)</f>
-        <v>0</v>
+      <c r="E30" s="218" t="e">
+        <f>SUM('Fuel aggregation'!E11:E12)-SUM('Final demand'!C11:C12)</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="F30" s="218"/>
       <c r="G30" s="414"/>
       <c r="H30" s="8"/>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
-      <c r="K30" s="40"/>
-      <c r="L30" s="588"/>
-      <c r="M30" s="579"/>
+      <c r="K30" s="40" t="s">
+        <v>342</v>
+      </c>
+      <c r="L30" s="585" t="e">
+        <f>IF(ABS(E30)/SUM(ABS('Fuel aggregation'!E11),ABS('Fuel aggregation'!E12))&lt;0.01,TRUE,FALSE)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M30" s="579" t="e">
+        <f>IF(L30=TRUE," ","This error should be as close to zero as possible.")</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="N30" s="8"/>
       <c r="O30" s="423"/>
       <c r="P30" s="424"/>
@@ -22587,32 +22768,24 @@
     <row r="31" spans="1:16">
       <c r="A31" s="8"/>
       <c r="B31" s="27"/>
-      <c r="C31" s="587" t="s">
-        <v>461</v>
+      <c r="C31" s="8" t="s">
+        <v>594</v>
       </c>
       <c r="D31" s="295" t="s">
         <v>339</v>
       </c>
-      <c r="E31" s="215" t="e">
-        <f>SUM('Fuel aggregation'!F11:F12)-SUM('Final demand'!D11:D12)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F31" s="215"/>
+      <c r="E31" s="218">
+        <f>SUM('Fuel aggregation'!F11:F12)</f>
+        <v>0</v>
+      </c>
+      <c r="F31" s="218"/>
       <c r="G31" s="414"/>
       <c r="H31" s="8"/>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
-      <c r="K31" s="40" t="s">
-        <v>342</v>
-      </c>
-      <c r="L31" s="585" t="e">
-        <f>IF(ABS(E31)/SUM(ABS('Fuel aggregation'!F11),ABS('Fuel aggregation'!F12))&lt;0.01,TRUE,FALSE)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M31" s="579" t="e">
-        <f>IF(L31=TRUE," ","This error should be as close to zero as possible.")</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="K31" s="40"/>
+      <c r="L31" s="588"/>
+      <c r="M31" s="579"/>
       <c r="N31" s="8"/>
       <c r="O31" s="423"/>
       <c r="P31" s="424"/>
@@ -22620,24 +22793,32 @@
     <row r="32" spans="1:16">
       <c r="A32" s="8"/>
       <c r="B32" s="27"/>
-      <c r="C32" s="8" t="s">
-        <v>595</v>
+      <c r="C32" s="587" t="s">
+        <v>461</v>
       </c>
       <c r="D32" s="295" t="s">
         <v>339</v>
       </c>
-      <c r="E32" s="215">
-        <f>SUM('Fuel aggregation'!G11:G12)</f>
-        <v>0</v>
+      <c r="E32" s="215" t="e">
+        <f>SUM('Fuel aggregation'!F11:F12)-SUM('Final demand'!D11:D12)</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="F32" s="215"/>
       <c r="G32" s="414"/>
       <c r="H32" s="8"/>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
-      <c r="K32" s="40"/>
-      <c r="L32" s="588"/>
-      <c r="M32" s="579"/>
+      <c r="K32" s="40" t="s">
+        <v>342</v>
+      </c>
+      <c r="L32" s="585" t="e">
+        <f>IF(ABS(E32)/SUM(ABS('Fuel aggregation'!F11),ABS('Fuel aggregation'!F12))&lt;0.01,TRUE,FALSE)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M32" s="579" t="e">
+        <f>IF(L32=TRUE," ","This error should be as close to zero as possible.")</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="N32" s="8"/>
       <c r="O32" s="423"/>
       <c r="P32" s="424"/>
@@ -22645,32 +22826,24 @@
     <row r="33" spans="1:16">
       <c r="A33" s="8"/>
       <c r="B33" s="27"/>
-      <c r="C33" s="587" t="s">
-        <v>462</v>
+      <c r="C33" s="8" t="s">
+        <v>595</v>
       </c>
       <c r="D33" s="295" t="s">
         <v>339</v>
       </c>
-      <c r="E33" s="215" t="e">
-        <f>SUM('Fuel aggregation'!G11:G12)-SUM('Final demand'!E11:E12)</f>
-        <v>#DIV/0!</v>
+      <c r="E33" s="215">
+        <f>SUM('Fuel aggregation'!G11:G12)</f>
+        <v>0</v>
       </c>
       <c r="F33" s="215"/>
       <c r="G33" s="414"/>
       <c r="H33" s="8"/>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
-      <c r="K33" s="40" t="s">
-        <v>342</v>
-      </c>
-      <c r="L33" s="585" t="e">
-        <f>IF(ABS(E33)/SUM(ABS('Fuel aggregation'!G11),ABS('Fuel aggregation'!G12))&lt;0.01,TRUE,FALSE)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M33" s="579" t="e">
-        <f>IF(L33=TRUE," ","This error should be as close to zero as possible.")</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="K33" s="40"/>
+      <c r="L33" s="588"/>
+      <c r="M33" s="579"/>
       <c r="N33" s="8"/>
       <c r="O33" s="423"/>
       <c r="P33" s="424"/>
@@ -22678,24 +22851,32 @@
     <row r="34" spans="1:16">
       <c r="A34" s="8"/>
       <c r="B34" s="27"/>
-      <c r="C34" s="8" t="s">
-        <v>596</v>
+      <c r="C34" s="587" t="s">
+        <v>462</v>
       </c>
       <c r="D34" s="295" t="s">
         <v>339</v>
       </c>
-      <c r="E34" s="215">
-        <f>SUM('Fuel aggregation'!G16:G17)</f>
-        <v>0</v>
+      <c r="E34" s="215" t="e">
+        <f>SUM('Fuel aggregation'!G11:G12)-SUM('Final demand'!E11:E12)</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="F34" s="215"/>
       <c r="G34" s="414"/>
       <c r="H34" s="8"/>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
-      <c r="K34" s="40"/>
-      <c r="L34" s="588"/>
-      <c r="M34" s="579"/>
+      <c r="K34" s="40" t="s">
+        <v>342</v>
+      </c>
+      <c r="L34" s="585" t="e">
+        <f>IF(ABS(E34)/SUM(ABS('Fuel aggregation'!G11),ABS('Fuel aggregation'!G12))&lt;0.01,TRUE,FALSE)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M34" s="579" t="e">
+        <f>IF(L34=TRUE," ","This error should be as close to zero as possible.")</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="N34" s="8"/>
       <c r="O34" s="423"/>
       <c r="P34" s="424"/>
@@ -22703,32 +22884,24 @@
     <row r="35" spans="1:16">
       <c r="A35" s="8"/>
       <c r="B35" s="27"/>
-      <c r="C35" s="587" t="s">
-        <v>463</v>
+      <c r="C35" s="8" t="s">
+        <v>596</v>
       </c>
       <c r="D35" s="295" t="s">
         <v>339</v>
       </c>
-      <c r="E35" s="215" t="e">
-        <f>-'Fuel aggregation'!G15-'Final demand'!E15</f>
-        <v>#DIV/0!</v>
+      <c r="E35" s="215">
+        <f>SUM('Fuel aggregation'!G16:G17)</f>
+        <v>0</v>
       </c>
       <c r="F35" s="215"/>
       <c r="G35" s="414"/>
       <c r="H35" s="8"/>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
-      <c r="K35" s="40" t="s">
-        <v>342</v>
-      </c>
-      <c r="L35" s="585" t="e">
-        <f>IF(ABS(E35)/ABS('Fuel aggregation'!G15)&lt;0.01,TRUE,FALSE)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M35" s="579" t="e">
-        <f>IF(L35=TRUE," ","This error should be as close to zero as possible.")</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="K35" s="40"/>
+      <c r="L35" s="588"/>
+      <c r="M35" s="579"/>
       <c r="N35" s="8"/>
       <c r="O35" s="423"/>
       <c r="P35" s="424"/>
@@ -22736,24 +22909,32 @@
     <row r="36" spans="1:16">
       <c r="A36" s="8"/>
       <c r="B36" s="27"/>
-      <c r="C36" s="8" t="s">
-        <v>597</v>
+      <c r="C36" s="587" t="s">
+        <v>463</v>
       </c>
       <c r="D36" s="295" t="s">
         <v>339</v>
       </c>
-      <c r="E36" s="215">
-        <f>SUM('Fuel aggregation'!G21:G22)</f>
-        <v>0</v>
+      <c r="E36" s="215" t="e">
+        <f>-'Fuel aggregation'!G15-'Final demand'!E15</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="F36" s="215"/>
       <c r="G36" s="414"/>
       <c r="H36" s="8"/>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
-      <c r="K36" s="40"/>
-      <c r="L36" s="588"/>
-      <c r="M36" s="579"/>
+      <c r="K36" s="40" t="s">
+        <v>342</v>
+      </c>
+      <c r="L36" s="585" t="e">
+        <f>IF(ABS(E36)/ABS('Fuel aggregation'!G15)&lt;0.01,TRUE,FALSE)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M36" s="579" t="e">
+        <f>IF(L36=TRUE," ","This error should be as close to zero as possible.")</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="N36" s="8"/>
       <c r="O36" s="423"/>
       <c r="P36" s="424"/>
@@ -22761,190 +22942,192 @@
     <row r="37" spans="1:16">
       <c r="A37" s="8"/>
       <c r="B37" s="27"/>
-      <c r="C37" s="587" t="s">
-        <v>464</v>
+      <c r="C37" s="8" t="s">
+        <v>597</v>
       </c>
       <c r="D37" s="295" t="s">
         <v>339</v>
       </c>
-      <c r="E37" s="215" t="e">
-        <f>'Fuel aggregation'!G20-SUM('Final demand'!E19:E20)</f>
-        <v>#DIV/0!</v>
+      <c r="E37" s="215">
+        <f>SUM('Fuel aggregation'!G21:G22)</f>
+        <v>0</v>
       </c>
       <c r="F37" s="215"/>
       <c r="G37" s="414"/>
       <c r="H37" s="8"/>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
-      <c r="K37" s="40" t="s">
-        <v>342</v>
-      </c>
-      <c r="L37" s="585" t="e">
-        <f>IF(ABS(E37)/ABS('Fuel aggregation'!G20)&lt;0.01,TRUE,FALSE)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M37" s="579" t="e">
-        <f>IF(L37=TRUE," ","This error should be as close to zero as possible.")</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="K37" s="40"/>
+      <c r="L37" s="588"/>
+      <c r="M37" s="579"/>
       <c r="N37" s="8"/>
       <c r="O37" s="423"/>
       <c r="P37" s="424"/>
     </row>
     <row r="38" spans="1:16">
       <c r="A38" s="8"/>
-      <c r="B38" s="34"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="298"/>
-      <c r="E38" s="307"/>
-      <c r="F38" s="307"/>
-      <c r="G38" s="416"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="9"/>
-      <c r="K38" s="41"/>
-      <c r="L38" s="406"/>
-      <c r="M38" s="579"/>
+      <c r="B38" s="27"/>
+      <c r="C38" s="587" t="s">
+        <v>464</v>
+      </c>
+      <c r="D38" s="295" t="s">
+        <v>339</v>
+      </c>
+      <c r="E38" s="215" t="e">
+        <f>'Fuel aggregation'!G20-SUM('Final demand'!E19:E20)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F38" s="215"/>
+      <c r="G38" s="414"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="40" t="s">
+        <v>342</v>
+      </c>
+      <c r="L38" s="585" t="e">
+        <f>IF(ABS(E38)/ABS('Fuel aggregation'!G20)&lt;0.01,TRUE,FALSE)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M38" s="579" t="e">
+        <f>IF(L38=TRUE," ","This error should be as close to zero as possible.")</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="N38" s="8"/>
       <c r="O38" s="423"/>
       <c r="P38" s="424"/>
     </row>
-    <row r="39" spans="1:16" s="304" customFormat="1" ht="16" thickBot="1">
-      <c r="B39" s="32" t="s">
-        <v>227</v>
-      </c>
-      <c r="C39" s="301"/>
-      <c r="D39" s="305"/>
-      <c r="E39" s="306"/>
-      <c r="F39" s="412"/>
-      <c r="G39" s="417"/>
-      <c r="H39" s="301"/>
-      <c r="I39" s="301"/>
-      <c r="J39" s="301"/>
-      <c r="K39" s="43"/>
-      <c r="L39" s="311"/>
-      <c r="M39" s="581"/>
-      <c r="N39" s="301"/>
+    <row r="39" spans="1:16">
+      <c r="A39" s="8"/>
+      <c r="B39" s="34"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="298"/>
+      <c r="E39" s="307"/>
+      <c r="F39" s="307"/>
+      <c r="G39" s="416"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="41"/>
+      <c r="L39" s="406"/>
+      <c r="M39" s="579"/>
+      <c r="N39" s="8"/>
       <c r="O39" s="423"/>
       <c r="P39" s="424"/>
     </row>
-    <row r="40" spans="1:16" ht="16" thickBot="1">
-      <c r="B40" s="27"/>
-      <c r="C40" s="8" t="s">
+    <row r="40" spans="1:16" s="304" customFormat="1" ht="16" thickBot="1">
+      <c r="B40" s="32" t="s">
         <v>227</v>
       </c>
-      <c r="D40" s="295" t="s">
-        <v>211</v>
-      </c>
-      <c r="E40" s="216"/>
-      <c r="F40" s="413"/>
-      <c r="G40" s="418" t="s">
-        <v>508</v>
-      </c>
-      <c r="H40" s="8"/>
-      <c r="I40" s="20"/>
-      <c r="J40" s="8"/>
-      <c r="K40" s="86"/>
-      <c r="L40" s="43"/>
-      <c r="M40" s="579"/>
-      <c r="N40" s="8"/>
-      <c r="O40" s="423" t="s">
-        <v>489</v>
-      </c>
+      <c r="C40" s="301"/>
+      <c r="D40" s="305"/>
+      <c r="E40" s="306"/>
+      <c r="F40" s="412"/>
+      <c r="G40" s="417"/>
+      <c r="H40" s="301"/>
+      <c r="I40" s="301"/>
+      <c r="J40" s="301"/>
+      <c r="K40" s="43"/>
+      <c r="L40" s="311"/>
+      <c r="M40" s="581"/>
+      <c r="N40" s="301"/>
+      <c r="O40" s="423"/>
       <c r="P40" s="424"/>
     </row>
     <row r="41" spans="1:16" ht="16" thickBot="1">
       <c r="B41" s="27"/>
-      <c r="C41" s="414" t="s">
-        <v>223</v>
-      </c>
-      <c r="D41" s="295"/>
-      <c r="E41" s="193"/>
-      <c r="F41" s="293"/>
+      <c r="C41" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="D41" s="295" t="s">
+        <v>211</v>
+      </c>
+      <c r="E41" s="216"/>
+      <c r="F41" s="413"/>
       <c r="G41" s="418" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="H41" s="8"/>
       <c r="I41" s="20"/>
       <c r="J41" s="8"/>
-      <c r="K41" s="40" t="s">
-        <v>184</v>
-      </c>
-      <c r="L41" s="575">
-        <f>IF(SUM(E41:E44)=1,TRUE,SUM(E41:E44))</f>
-        <v>0</v>
-      </c>
-      <c r="M41" s="579" t="str">
-        <f>IF(L41=TRUE," ","Please adjust the percentages of heat delivered by the technologies to the left.")</f>
-        <v>Please adjust the percentages of heat delivered by the technologies to the left.</v>
-      </c>
+      <c r="K41" s="86"/>
+      <c r="L41" s="43"/>
+      <c r="M41" s="579"/>
       <c r="N41" s="8"/>
       <c r="O41" s="423" t="s">
-        <v>490</v>
-      </c>
-      <c r="P41" s="7">
-        <f>IF(L41=TRUE,1,0)</f>
-        <v>0</v>
-      </c>
+        <v>489</v>
+      </c>
+      <c r="P41" s="424"/>
     </row>
     <row r="42" spans="1:16" ht="16" thickBot="1">
       <c r="B42" s="27"/>
       <c r="C42" s="414" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D42" s="295"/>
       <c r="E42" s="193"/>
       <c r="F42" s="293"/>
       <c r="G42" s="418" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H42" s="8"/>
       <c r="I42" s="20"/>
       <c r="J42" s="8"/>
-      <c r="K42" s="40"/>
-      <c r="L42" s="404"/>
-      <c r="M42" s="579" t="s">
-        <v>203</v>
+      <c r="K42" s="40" t="s">
+        <v>184</v>
+      </c>
+      <c r="L42" s="575">
+        <f>IF(SUM(E42:E45)=1,TRUE,SUM(E42:E45))</f>
+        <v>0</v>
+      </c>
+      <c r="M42" s="579" t="str">
+        <f>IF(L42=TRUE," ","Please adjust the percentages of heat delivered by the technologies to the left.")</f>
+        <v>Please adjust the percentages of heat delivered by the technologies to the left.</v>
       </c>
       <c r="N42" s="8"/>
       <c r="O42" s="423" t="s">
-        <v>491</v>
-      </c>
-      <c r="P42" s="424"/>
+        <v>490</v>
+      </c>
+      <c r="P42" s="7">
+        <f>IF(L42=TRUE,1,0)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="43" spans="1:16" ht="16" thickBot="1">
       <c r="B43" s="27"/>
       <c r="C43" s="414" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D43" s="295"/>
       <c r="E43" s="193"/>
       <c r="F43" s="293"/>
       <c r="G43" s="418" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H43" s="8"/>
       <c r="I43" s="20"/>
       <c r="J43" s="8"/>
       <c r="K43" s="40"/>
-      <c r="L43" s="405"/>
-      <c r="M43" s="579"/>
+      <c r="L43" s="404"/>
+      <c r="M43" s="579" t="s">
+        <v>203</v>
+      </c>
       <c r="N43" s="8"/>
       <c r="O43" s="423" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="P43" s="424"/>
     </row>
     <row r="44" spans="1:16" ht="16" thickBot="1">
       <c r="B44" s="27"/>
       <c r="C44" s="414" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D44" s="295"/>
       <c r="E44" s="193"/>
       <c r="F44" s="293"/>
       <c r="G44" s="418" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H44" s="8"/>
       <c r="I44" s="20"/>
@@ -22954,48 +23137,54 @@
       <c r="M44" s="579"/>
       <c r="N44" s="8"/>
       <c r="O44" s="423" t="s">
+        <v>492</v>
+      </c>
+      <c r="P44" s="424"/>
+    </row>
+    <row r="45" spans="1:16" ht="16" thickBot="1">
+      <c r="B45" s="27"/>
+      <c r="C45" s="414" t="s">
+        <v>226</v>
+      </c>
+      <c r="D45" s="295"/>
+      <c r="E45" s="193"/>
+      <c r="F45" s="293"/>
+      <c r="G45" s="418" t="s">
+        <v>519</v>
+      </c>
+      <c r="H45" s="8"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="8"/>
+      <c r="K45" s="40"/>
+      <c r="L45" s="405"/>
+      <c r="M45" s="579"/>
+      <c r="N45" s="8"/>
+      <c r="O45" s="423" t="s">
         <v>493</v>
       </c>
-      <c r="P44" s="424"/>
-    </row>
-    <row r="45" spans="1:16">
-      <c r="B45" s="34"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="298"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="416"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="9"/>
-      <c r="J45" s="9"/>
-      <c r="K45" s="41"/>
-      <c r="L45" s="407"/>
-      <c r="M45" s="582"/>
-      <c r="N45" s="8"/>
-      <c r="O45" s="423"/>
       <c r="P45" s="424"/>
     </row>
     <row r="46" spans="1:16">
-      <c r="B46" s="32" t="s">
-        <v>614</v>
-      </c>
-      <c r="C46" s="8"/>
-      <c r="D46" s="295"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="414"/>
-      <c r="H46" s="8"/>
-      <c r="I46" s="8"/>
-      <c r="J46" s="8"/>
-      <c r="K46" s="40"/>
-      <c r="L46" s="43"/>
-      <c r="M46" s="579"/>
+      <c r="B46" s="34"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="298"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="416"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="41"/>
+      <c r="L46" s="407"/>
+      <c r="M46" s="582"/>
       <c r="N46" s="8"/>
       <c r="O46" s="423"/>
       <c r="P46" s="424"/>
     </row>
     <row r="47" spans="1:16">
-      <c r="B47" s="27"/>
+      <c r="B47" s="32" t="s">
+        <v>614</v>
+      </c>
       <c r="C47" s="8"/>
       <c r="D47" s="295"/>
       <c r="E47" s="8"/>
@@ -23005,100 +23194,85 @@
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="40"/>
-      <c r="L47" s="653" t="b">
+      <c r="L47" s="43"/>
+      <c r="M47" s="579"/>
+      <c r="N47" s="8"/>
+      <c r="O47" s="423"/>
+      <c r="P47" s="424"/>
+    </row>
+    <row r="48" spans="1:16">
+      <c r="B48" s="27"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="295"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="414"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="8"/>
+      <c r="K48" s="40"/>
+      <c r="L48" s="653" t="b">
         <f>IF(OR('Corrected energy balance step 2'!BN30=0, 'Corrected energy balance step 2'!BN46=0), FALSE, TRUE)</f>
         <v>0</v>
       </c>
-      <c r="M47" s="579" t="str">
-        <f>IF(L47=TRUE," ","If the own use or transformation of cokes ovens is zero, efficiencies for the cokes oven cannot be calculate. Please consider disableing the Metal industry sub-sector.")</f>
+      <c r="M48" s="579" t="str">
+        <f>IF(L48=TRUE," ","If the own use or transformation of cokes ovens is zero, efficiencies for the cokes oven cannot be calculate. Please consider disableing the Metal industry sub-sector.")</f>
         <v>If the own use or transformation of cokes ovens is zero, efficiencies for the cokes oven cannot be calculate. Please consider disableing the Metal industry sub-sector.</v>
       </c>
-      <c r="N47" s="8"/>
-      <c r="O47" s="423"/>
-      <c r="P47" s="7">
-        <f>IF(L47=TRUE,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16">
-      <c r="B48" s="34"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="298"/>
-      <c r="E48" s="9"/>
-      <c r="F48" s="9"/>
-      <c r="G48" s="416"/>
-      <c r="H48" s="9"/>
-      <c r="I48" s="9"/>
-      <c r="J48" s="9"/>
-      <c r="K48" s="41"/>
-      <c r="L48" s="407"/>
-      <c r="M48" s="582"/>
       <c r="N48" s="8"/>
       <c r="O48" s="423"/>
-      <c r="P48" s="424"/>
+      <c r="P48" s="7">
+        <f>IF(L48=TRUE,1,0)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="49" spans="2:16">
-      <c r="B49" s="32" t="s">
-        <v>404</v>
-      </c>
-      <c r="C49" s="8"/>
-      <c r="D49" s="295"/>
-      <c r="E49" s="303"/>
-      <c r="F49" s="303"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
-      <c r="I49" s="8"/>
-      <c r="J49" s="8"/>
-      <c r="K49" s="40"/>
-      <c r="L49" s="43"/>
-      <c r="M49" s="579"/>
+      <c r="B49" s="34"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="298"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="416"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="41"/>
+      <c r="L49" s="407"/>
+      <c r="M49" s="582"/>
       <c r="N49" s="8"/>
       <c r="O49" s="423"/>
       <c r="P49" s="424"/>
     </row>
     <row r="50" spans="2:16">
-      <c r="B50" s="30"/>
-      <c r="C50" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="D50" s="295" t="s">
-        <v>339</v>
-      </c>
-      <c r="E50" s="215">
-        <f>'Other energy use'!D22</f>
-        <v>0</v>
-      </c>
-      <c r="F50" s="215"/>
+      <c r="B50" s="32" t="s">
+        <v>404</v>
+      </c>
+      <c r="C50" s="8"/>
+      <c r="D50" s="295"/>
+      <c r="E50" s="303"/>
+      <c r="F50" s="303"/>
       <c r="G50" s="8"/>
       <c r="H50" s="8"/>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
-      <c r="K50" s="40" t="s">
-        <v>417</v>
-      </c>
-      <c r="L50" s="574" t="b">
-        <f>IF(E50&gt;=0, TRUE, FALSE)</f>
-        <v>1</v>
-      </c>
+      <c r="K50" s="40"/>
+      <c r="L50" s="43"/>
       <c r="M50" s="579"/>
       <c r="N50" s="8"/>
       <c r="O50" s="423"/>
-      <c r="P50" s="7">
-        <f>IF(L50=TRUE,1,0)</f>
-        <v>1</v>
-      </c>
+      <c r="P50" s="424"/>
     </row>
     <row r="51" spans="2:16">
-      <c r="B51" s="27"/>
+      <c r="B51" s="30"/>
       <c r="C51" s="8" t="s">
-        <v>431</v>
+        <v>341</v>
       </c>
       <c r="D51" s="295" t="s">
         <v>339</v>
       </c>
-      <c r="E51" s="215">
-        <f>'Other energy use'!H22</f>
-        <v>0</v>
+      <c r="E51" s="215" t="e">
+        <f>'Other energy use'!D22</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="F51" s="215"/>
       <c r="G51" s="8"/>
@@ -23106,31 +23280,31 @@
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="40" t="s">
-        <v>432</v>
-      </c>
-      <c r="L51" s="574" t="b">
+        <v>417</v>
+      </c>
+      <c r="L51" s="574" t="e">
         <f>IF(E51&gt;=0, TRUE, FALSE)</f>
-        <v>1</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="M51" s="579"/>
       <c r="N51" s="8"/>
       <c r="O51" s="423"/>
-      <c r="P51" s="7">
+      <c r="P51" s="7" t="e">
         <f>IF(L51=TRUE,1,0)</f>
-        <v>1</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="52" spans="2:16">
       <c r="B52" s="27"/>
       <c r="C52" s="8" t="s">
-        <v>232</v>
+        <v>431</v>
       </c>
       <c r="D52" s="295" t="s">
         <v>339</v>
       </c>
-      <c r="E52" s="215" t="e">
-        <f>'Other energy use'!G22</f>
-        <v>#DIV/0!</v>
+      <c r="E52" s="215">
+        <f>'Other energy use'!H22</f>
+        <v>0</v>
       </c>
       <c r="F52" s="215"/>
       <c r="G52" s="8"/>
@@ -23138,30 +23312,30 @@
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="40" t="s">
-        <v>418</v>
-      </c>
-      <c r="L52" s="574" t="e">
-        <f t="shared" ref="L52:L54" si="0">IF(E52&gt;=0, TRUE, FALSE)</f>
-        <v>#DIV/0!</v>
+        <v>432</v>
+      </c>
+      <c r="L52" s="574" t="b">
+        <f>IF(E52&gt;=0, TRUE, FALSE)</f>
+        <v>1</v>
       </c>
       <c r="M52" s="579"/>
       <c r="N52" s="8"/>
       <c r="O52" s="423"/>
-      <c r="P52" s="7" t="e">
+      <c r="P52" s="7">
         <f>IF(L52=TRUE,1,0)</f>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="2:16">
       <c r="B53" s="27"/>
       <c r="C53" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D53" s="295" t="s">
         <v>339</v>
       </c>
       <c r="E53" s="215" t="e">
-        <f>'Other energy use'!K22</f>
+        <f>'Other energy use'!G22</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F53" s="215"/>
@@ -23170,10 +23344,10 @@
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="40" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="L53" s="574" t="e">
-        <f>IF(E53&gt;=0, TRUE, FALSE)</f>
+        <f t="shared" ref="L53:L55" si="0">IF(E53&gt;=0, TRUE, FALSE)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M53" s="579"/>
@@ -23187,13 +23361,13 @@
     <row r="54" spans="2:16">
       <c r="B54" s="27"/>
       <c r="C54" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D54" s="295" t="s">
         <v>339</v>
       </c>
       <c r="E54" s="215" t="e">
-        <f>'Other energy use'!J22</f>
+        <f>'Other energy use'!K22</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F54" s="215"/>
@@ -23201,11 +23375,11 @@
       <c r="H54" s="8"/>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
-      <c r="K54" s="16" t="s">
-        <v>420</v>
+      <c r="K54" s="40" t="s">
+        <v>419</v>
       </c>
       <c r="L54" s="574" t="e">
-        <f t="shared" si="0"/>
+        <f>IF(E54&gt;=0, TRUE, FALSE)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M54" s="579"/>
@@ -23218,20 +23392,35 @@
     </row>
     <row r="55" spans="2:16">
       <c r="B55" s="27"/>
-      <c r="C55" s="8"/>
-      <c r="D55" s="295"/>
-      <c r="E55" s="215"/>
+      <c r="C55" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="D55" s="295" t="s">
+        <v>339</v>
+      </c>
+      <c r="E55" s="215" t="e">
+        <f>'Other energy use'!J22</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="F55" s="215"/>
       <c r="G55" s="8"/>
       <c r="H55" s="8"/>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
-      <c r="K55" s="16"/>
-      <c r="L55" s="408"/>
+      <c r="K55" s="16" t="s">
+        <v>420</v>
+      </c>
+      <c r="L55" s="574" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="M55" s="579"/>
       <c r="N55" s="8"/>
       <c r="O55" s="423"/>
-      <c r="P55" s="425"/>
+      <c r="P55" s="7" t="e">
+        <f>IF(L55=TRUE,1,0)</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="56" spans="2:16">
       <c r="B56" s="27"/>
@@ -23243,41 +23432,58 @@
       <c r="H56" s="8"/>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
-      <c r="K56" s="309" t="s">
+      <c r="K56" s="16"/>
+      <c r="L56" s="408"/>
+      <c r="M56" s="579"/>
+      <c r="N56" s="8"/>
+      <c r="O56" s="423"/>
+      <c r="P56" s="425"/>
+    </row>
+    <row r="57" spans="2:16">
+      <c r="B57" s="27"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="295"/>
+      <c r="E57" s="215"/>
+      <c r="F57" s="215"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="8"/>
+      <c r="I57" s="8"/>
+      <c r="J57" s="8"/>
+      <c r="K57" s="309" t="s">
         <v>421</v>
       </c>
-      <c r="L56" s="585" t="e">
+      <c r="L57" s="585" t="e">
         <f>IF(ABS('Other energy use'!L22/SUM('Other energy use'!D22:L22))&lt;0.005,TRUE,'Other energy use'!L22/SUM('Other energy use'!D22:L22))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M56" s="583" t="e">
-        <f>IF(L56=TRUE," ","There is an energy carrier in the energy balance for the Industry sector that cannot be processed in this sector by the ETM. "&amp;"Please check whether you pasted the right version of the energy balance. If you did that right, please contact Quintel Intelligence.")</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N56" s="419"/>
-      <c r="O56" s="426"/>
-      <c r="P56" s="424"/>
-    </row>
-    <row r="57" spans="2:16" ht="16" thickBot="1">
-      <c r="B57" s="35"/>
-      <c r="C57" s="48"/>
-      <c r="D57" s="297"/>
-      <c r="E57" s="92"/>
-      <c r="F57" s="92"/>
-      <c r="G57" s="48"/>
-      <c r="H57" s="48"/>
-      <c r="I57" s="48"/>
-      <c r="J57" s="48"/>
-      <c r="K57" s="310"/>
-      <c r="L57" s="409"/>
-      <c r="M57" s="584"/>
-      <c r="N57" s="8"/>
-      <c r="O57" s="427"/>
-      <c r="P57" s="428"/>
-    </row>
-    <row r="65" spans="5:6">
-      <c r="E65" s="8"/>
-      <c r="F65" s="8"/>
+      <c r="M57" s="583" t="e">
+        <f>IF(L57=TRUE," ","There is an energy carrier in the energy balance for the Industry sector that cannot be processed in this sector by the ETM. "&amp;"Please check whether you pasted the right version of the energy balance. If you did that right, please contact Quintel Intelligence.")</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N57" s="419"/>
+      <c r="O57" s="426"/>
+      <c r="P57" s="424"/>
+    </row>
+    <row r="58" spans="2:16" ht="16" thickBot="1">
+      <c r="B58" s="35"/>
+      <c r="C58" s="48"/>
+      <c r="D58" s="297"/>
+      <c r="E58" s="92"/>
+      <c r="F58" s="92"/>
+      <c r="G58" s="48"/>
+      <c r="H58" s="48"/>
+      <c r="I58" s="48"/>
+      <c r="J58" s="48"/>
+      <c r="K58" s="310"/>
+      <c r="L58" s="409"/>
+      <c r="M58" s="584"/>
+      <c r="N58" s="8"/>
+      <c r="O58" s="427"/>
+      <c r="P58" s="428"/>
+    </row>
+    <row r="66" spans="5:6">
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -23293,7 +23499,7 @@
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L41">
+  <conditionalFormatting sqref="L42">
     <cfRule type="cellIs" dxfId="20" priority="9" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
@@ -23308,52 +23514,52 @@
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L50">
+  <conditionalFormatting sqref="L51">
     <cfRule type="cellIs" dxfId="17" priority="8" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L51">
+  <conditionalFormatting sqref="L52">
     <cfRule type="cellIs" dxfId="16" priority="7" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L52">
+  <conditionalFormatting sqref="L53">
     <cfRule type="cellIs" dxfId="15" priority="6" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L53">
+  <conditionalFormatting sqref="L54">
     <cfRule type="cellIs" dxfId="14" priority="5" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L54">
+  <conditionalFormatting sqref="L55">
     <cfRule type="cellIs" dxfId="13" priority="4" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L29 L31 L33 L35 L37">
+  <conditionalFormatting sqref="L30 L32 L34 L36 L38">
     <cfRule type="cellIs" dxfId="12" priority="3" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L56">
+  <conditionalFormatting sqref="L57">
     <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L47">
+  <conditionalFormatting sqref="L48">
     <cfRule type="containsText" dxfId="10" priority="1" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",L47)))</formula>
+      <formula>NOT(ISERROR(SEARCH("TRUE",L48)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value Range" error="You can only enter a value between 0% and 100%." sqref="E41:E44 E18:E21 E24:E25">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value Range" error="You can only enter a value between 0% and 100%." sqref="E42:E45 E18:E21 E24:E26">
       <formula1>0</formula1>
       <formula2>1</formula2>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value Range" error="You can only enter a positive number here. " sqref="E40">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value Range" error="You can only enter a positive number here. " sqref="E41">
       <formula1>0</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value Range" error="The steel production should be an positive, non-zero value. If there is no steel production in your country, please consider disabling the Metal industry sub-sector." sqref="E17">
@@ -23370,7 +23576,7 @@
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
             <control shapeId="11265" r:id="rId3" name="import_data">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[2]!import_data_button">
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>8</xdr:col>
@@ -23393,7 +23599,7 @@
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
             <control shapeId="11266" r:id="rId4" name="export_data">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[2]!export_data_button">
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>8</xdr:col>
@@ -23416,7 +23622,7 @@
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
             <control shapeId="11272" r:id="rId5" name="select_dashboard">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[2]!select_dashboard_values">
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>8</xdr:col>
@@ -30325,12 +30531,12 @@
       <c r="M4" s="8"/>
     </row>
     <row r="5" spans="2:21" ht="45" customHeight="1">
-      <c r="B5" s="662" t="s">
+      <c r="B5" s="663" t="s">
         <v>587</v>
       </c>
-      <c r="C5" s="663"/>
-      <c r="D5" s="663"/>
-      <c r="E5" s="664"/>
+      <c r="C5" s="664"/>
+      <c r="D5" s="664"/>
+      <c r="E5" s="665"/>
       <c r="F5" s="47"/>
       <c r="G5" s="47"/>
       <c r="H5" s="47"/>

--- a/analyses/4a_metal_industry_analysis.xlsx
+++ b/analyses/4a_metal_industry_analysis.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="32760" yWindow="2820" windowWidth="28800" windowHeight="15800" tabRatio="835" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="835" firstSheet="5" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Sheet" sheetId="34" r:id="rId1"/>
@@ -44,7 +44,6 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId35"/>
-    <externalReference r:id="rId36"/>
   </externalReferences>
   <definedNames>
     <definedName name="aluminium_production">Dashboard!$E$41</definedName>
@@ -3156,7 +3155,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1571">
+  <cellStyleXfs count="1573">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3930,6 +3929,8 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -6107,7 +6108,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1571">
+  <cellStyles count="1573">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -6893,6 +6894,7 @@
     <cellStyle name="Followed Hyperlink" xfId="1566" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1568" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1570" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1572" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -7676,6 +7678,7 @@
     <cellStyle name="Hyperlink" xfId="1565" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1567" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1569" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1571" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
     <cellStyle name="Percent 2" xfId="772"/>
@@ -12178,28 +12181,6 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Cover sheet"/>
-      <sheetName val="Dashboard"/>
-      <sheetName val="analysis_manager.xlsm"/>
-    </sheetNames>
-    <definedNames>
-      <definedName name="export_data_button"/>
-      <definedName name="import_data_button"/>
-      <definedName name="select_dashboard_values"/>
-    </definedNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -13744,9 +13725,7 @@
   </sheetPr>
   <dimension ref="B2:E40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -14128,8 +14107,8 @@
         <f>'Steel and alu demand'!M14</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E38" s="267" t="e">
-        <f>D38/SUM($D$38:$D$39)</f>
+      <c r="E38" s="33" t="e">
+        <f>IF(SUM($D$38:$D$39)=0,1,D38/SUM($D$38:$D$39))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -14142,8 +14121,8 @@
         <f>'Other energy use'!J22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E39" s="267" t="e">
-        <f>D39/SUM($D$38:$D$39)</f>
+      <c r="E39" s="33" t="e">
+        <f>IF(SUM($D$38:$D$39)=0,0,D39/SUM($D$38:$D$39))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -22147,7 +22126,7 @@
   </sheetPr>
   <dimension ref="A2:P66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A20" workbookViewId="0">
       <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
@@ -23576,7 +23555,7 @@
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
             <control shapeId="11265" r:id="rId3" name="import_data">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[2]!import_data_button">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>8</xdr:col>
@@ -23599,7 +23578,7 @@
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
             <control shapeId="11266" r:id="rId4" name="export_data">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[2]!export_data_button">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>8</xdr:col>
@@ -23622,7 +23601,7 @@
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
             <control shapeId="11272" r:id="rId5" name="select_dashboard">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[2]!select_dashboard_values">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>8</xdr:col>

--- a/analyses/4a_metal_industry_analysis.xlsx
+++ b/analyses/4a_metal_industry_analysis.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27322"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="835" firstSheet="5" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="835" firstSheet="5" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Sheet" sheetId="34" r:id="rId1"/>
@@ -13725,7 +13725,7 @@
   </sheetPr>
   <dimension ref="B2:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -14153,7 +14153,9 @@
   </sheetPr>
   <dimension ref="B2:E19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -14270,7 +14272,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E15" s="271" t="e">
-        <f>D15/SUM($D$15:$D$18)</f>
+        <f>IF(SUM($D$15:$D$18)=0,1,D15/SUM($D$15:$D$18))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -14284,7 +14286,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E16" s="271" t="e">
-        <f t="shared" ref="E16:E18" si="0">D16/SUM($D$15:$D$18)</f>
+        <f t="shared" ref="E16:E18" si="0">IF(SUM($D$15:$D$18)=0,0,D16/SUM($D$15:$D$18))</f>
         <v>#DIV/0!</v>
       </c>
     </row>

--- a/analyses/4a_metal_industry_analysis.xlsx
+++ b/analyses/4a_metal_industry_analysis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michieldenhaan/Code/etdataset/analyses/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mathijsbijkerk/Projects/etdataset/analyses/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12B16BCA-39F7-0B4C-8AC7-572E32DA7D2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{521C3FF9-F887-9945-8A02-CE626E5BF814}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="27660" windowHeight="17500" tabRatio="835" firstSheet="29" activeTab="31" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="27660" windowHeight="17500" tabRatio="835" firstSheet="13" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Sheet" sheetId="34" r:id="rId1"/>
@@ -261,7 +261,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1187" uniqueCount="655">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1183" uniqueCount="651">
   <si>
     <t>Changelog</t>
   </si>
@@ -1805,9 +1805,6 @@
     <t>output.loss</t>
   </si>
   <si>
-    <t>energy_cokesoven_transformation_coal.converter</t>
-  </si>
-  <si>
     <t>industry_aluminium_electrolysis_current_electricity.converter</t>
   </si>
   <si>
@@ -2219,16 +2216,7 @@
     <t>Final demand conversion of steel production by scrap and HBI with EAF</t>
   </si>
   <si>
-    <t>energy_blastfurnace_own_use.converter</t>
-  </si>
-  <si>
-    <t>energy_cokesoven_own_use.converter</t>
-  </si>
-  <si>
     <t>industry_steel_scrap_hbi_eaf_efficiency</t>
-  </si>
-  <si>
-    <t>energy_blastfurnace_transformation_cokes.converter</t>
   </si>
   <si>
     <t>energy_blastfurnace_transformation_cokes_efficiency</t>
@@ -13014,6 +13002,7 @@
     <sheetNames>
       <sheetName val="Cover sheet"/>
       <sheetName val="Dashboard"/>
+      <sheetName val="analysis_manager"/>
     </sheetNames>
     <definedNames>
       <definedName name="export_data_button"/>
@@ -13023,6 +13012,7 @@
     <sheetDataSet>
       <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -13378,7 +13368,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D4" s="5"/>
     </row>
@@ -13427,7 +13417,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D9" s="7"/>
     </row>
@@ -14548,7 +14538,7 @@
   <sheetData>
     <row r="2" spans="2:5" ht="21" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
@@ -14568,7 +14558,7 @@
     <row r="6" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="2:5" s="225" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="223" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C7" s="224"/>
       <c r="D7" s="484"/>
@@ -14875,7 +14865,7 @@
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B37" s="471" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="343"/>
@@ -14944,7 +14934,7 @@
   <sheetData>
     <row r="2" spans="2:5" ht="21" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
@@ -15001,7 +14991,7 @@
     <row r="11" spans="2:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B11" s="472"/>
       <c r="C11" s="159" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D11" s="341">
         <f>'Steel and alu demand'!N12</f>
@@ -15015,7 +15005,7 @@
     <row r="12" spans="2:5" ht="34" x14ac:dyDescent="0.2">
       <c r="B12" s="472"/>
       <c r="C12" s="159" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D12" s="341">
         <f>'Steel and alu demand'!N13</f>
@@ -15029,7 +15019,7 @@
     <row r="13" spans="2:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B13" s="472"/>
       <c r="C13" s="671" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D13" s="341">
         <f>'Steel and alu demand'!N14</f>
@@ -15043,7 +15033,7 @@
     <row r="14" spans="2:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B14" s="472"/>
       <c r="C14" s="671" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D14" s="341">
         <f>'Steel and alu demand'!N15</f>
@@ -15057,7 +15047,7 @@
     <row r="15" spans="2:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B15" s="472"/>
       <c r="C15" s="671" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D15" s="341">
         <f>'Steel and alu demand'!N16</f>
@@ -15071,7 +15061,7 @@
     <row r="16" spans="2:5" ht="34" x14ac:dyDescent="0.2">
       <c r="B16" s="472"/>
       <c r="C16" s="159" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D16" s="341">
         <v>0</v>
@@ -15084,7 +15074,7 @@
     <row r="17" spans="2:5" ht="34" x14ac:dyDescent="0.2">
       <c r="B17" s="472"/>
       <c r="C17" s="159" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D17" s="341">
         <v>0</v>
@@ -15097,7 +15087,7 @@
     <row r="18" spans="2:5" ht="34" x14ac:dyDescent="0.2">
       <c r="B18" s="472"/>
       <c r="C18" s="671" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D18" s="341">
         <v>0</v>
@@ -15110,7 +15100,7 @@
     <row r="19" spans="2:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B19" s="472"/>
       <c r="C19" s="671" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D19" s="341">
         <v>0</v>
@@ -15137,7 +15127,7 @@
     <row r="22" spans="2:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B22" s="472"/>
       <c r="C22" s="159" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D22" s="341">
         <f>'Steel and alu demand'!G12</f>
@@ -15151,7 +15141,7 @@
     <row r="23" spans="2:5" ht="34" x14ac:dyDescent="0.2">
       <c r="B23" s="472"/>
       <c r="C23" s="159" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D23" s="341">
         <f>'Steel and alu demand'!G13</f>
@@ -15165,7 +15155,7 @@
     <row r="24" spans="2:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B24" s="472"/>
       <c r="C24" s="671" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D24" s="341">
         <f>'Steel and alu demand'!G14</f>
@@ -15179,7 +15169,7 @@
     <row r="25" spans="2:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B25" s="472"/>
       <c r="C25" s="671" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D25" s="341">
         <f>'Steel and alu demand'!G15</f>
@@ -15193,7 +15183,7 @@
     <row r="26" spans="2:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B26" s="472"/>
       <c r="C26" s="671" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D26" s="341">
         <f>'Steel and alu demand'!G16</f>
@@ -15221,7 +15211,7 @@
     <row r="29" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B29" s="472"/>
       <c r="C29" s="15" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D29" s="341">
         <f>'Steel and alu demand'!I12</f>
@@ -15249,7 +15239,7 @@
     <row r="32" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B32" s="472"/>
       <c r="C32" s="15" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D32" s="341">
         <f>'Steel and alu demand'!H12</f>
@@ -15277,7 +15267,7 @@
     <row r="35" spans="2:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B35" s="472"/>
       <c r="C35" s="159" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D35" s="341">
         <f>'Steel and alu demand'!J12</f>
@@ -15291,7 +15281,7 @@
     <row r="36" spans="2:5" ht="34" x14ac:dyDescent="0.2">
       <c r="B36" s="472"/>
       <c r="C36" s="159" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D36" s="341">
         <f>'Steel and alu demand'!J13</f>
@@ -15305,7 +15295,7 @@
     <row r="37" spans="2:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B37" s="472"/>
       <c r="C37" s="671" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D37" s="341">
         <f>'Steel and alu demand'!J14</f>
@@ -15319,7 +15309,7 @@
     <row r="38" spans="2:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B38" s="472"/>
       <c r="C38" s="671" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D38" s="341">
         <f>'Steel and alu demand'!J15</f>
@@ -15333,7 +15323,7 @@
     <row r="39" spans="2:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B39" s="472"/>
       <c r="C39" s="671" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D39" s="341">
         <f>'Steel and alu demand'!J16</f>
@@ -15361,7 +15351,7 @@
     <row r="42" spans="2:5" ht="34" x14ac:dyDescent="0.2">
       <c r="B42" s="472"/>
       <c r="C42" s="159" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D42" s="341">
         <f>'Steel and alu demand'!L10</f>
@@ -15389,7 +15379,7 @@
     <row r="45" spans="2:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B45" s="472"/>
       <c r="C45" s="159" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D45" s="341">
         <f>'Steel and alu demand'!K12</f>
@@ -15417,7 +15407,7 @@
     <row r="48" spans="2:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B48" s="472"/>
       <c r="C48" s="159" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D48" s="341">
         <f>'Steel and alu demand'!M12</f>
@@ -15431,7 +15421,7 @@
     <row r="49" spans="2:5" ht="34" x14ac:dyDescent="0.2">
       <c r="B49" s="472"/>
       <c r="C49" s="159" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D49" s="341">
         <f>'Steel and alu demand'!M13</f>
@@ -15482,7 +15472,7 @@
   <sheetData>
     <row r="2" spans="2:5" ht="21" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
@@ -15689,8 +15679,8 @@
   </sheetPr>
   <dimension ref="B2:E26"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15705,7 +15695,7 @@
   <sheetData>
     <row r="2" spans="2:5" ht="21" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
@@ -15718,7 +15708,7 @@
     </row>
     <row r="5" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="708" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C5" s="709"/>
       <c r="D5" s="709"/>
@@ -15727,7 +15717,7 @@
     <row r="6" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B7" s="223" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C7" s="153"/>
       <c r="D7" s="484"/>
@@ -15743,7 +15733,7 @@
       <c r="B9" s="480"/>
       <c r="C9" s="487"/>
       <c r="D9" s="635" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E9" s="636" t="s">
         <v>391</v>
@@ -15751,7 +15741,7 @@
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" s="471" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C10" s="637"/>
       <c r="D10" s="638"/>
@@ -15800,7 +15790,7 @@
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B15" s="471" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C15" s="645"/>
       <c r="D15" s="646"/>
@@ -15817,7 +15807,7 @@
     <row r="17" spans="2:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B17" s="156"/>
       <c r="C17" s="641" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D17" s="642">
         <f>-'Fuel aggregation'!G11</f>
@@ -15831,7 +15821,7 @@
     <row r="18" spans="2:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B18" s="156"/>
       <c r="C18" s="641" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D18" s="642">
         <f>-'Fuel aggregation'!G12</f>
@@ -15853,10 +15843,10 @@
     <row r="20" spans="2:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B20" s="27"/>
       <c r="C20" s="641" t="s">
-        <v>25</v>
+        <v>143</v>
       </c>
       <c r="D20" s="649">
-        <f>'Fuel aggregation'!G22</f>
+        <f>'Fuel aggregation'!G23</f>
         <v>0</v>
       </c>
       <c r="E20" s="647">
@@ -16061,7 +16051,7 @@
     <row r="12" spans="2:15" s="137" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B12" s="495"/>
       <c r="C12" s="493" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D12" s="109">
         <f>'Steel and alu prod'!E11</f>
@@ -16109,7 +16099,7 @@
     <row r="13" spans="2:15" s="137" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B13" s="495"/>
       <c r="C13" s="493" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D13" s="109">
         <f>'Steel and alu prod'!E12</f>
@@ -16130,7 +16120,7 @@
     <row r="14" spans="2:15" s="137" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B14" s="495"/>
       <c r="C14" s="493" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D14" s="109">
         <f>'Steel and alu prod'!E13</f>
@@ -16166,7 +16156,7 @@
     <row r="15" spans="2:15" s="137" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B15" s="495"/>
       <c r="C15" s="493" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D15" s="109">
         <f>'Steel and alu prod'!E14</f>
@@ -16187,7 +16177,7 @@
     <row r="16" spans="2:15" s="137" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B16" s="495"/>
       <c r="C16" s="493" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D16" s="109">
         <f>'Steel and alu prod'!E15</f>
@@ -16284,7 +16274,7 @@
     </row>
     <row r="20" spans="2:15" s="137" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B20" s="660" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C20" s="493"/>
       <c r="D20" s="110"/>
@@ -16303,7 +16293,7 @@
     <row r="21" spans="2:15" s="137" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B21" s="660"/>
       <c r="C21" s="493" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D21" s="109">
         <f>'Steel and alu prod'!E11</f>
@@ -16366,7 +16356,7 @@
     </row>
     <row r="23" spans="2:15" s="137" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B23" s="144" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C23" s="491"/>
       <c r="D23" s="145"/>
@@ -16446,7 +16436,7 @@
     <row r="26" spans="2:15" s="137" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B26" s="140"/>
       <c r="C26" s="493" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D26" s="109">
         <f>'Steel and alu prod'!E11</f>
@@ -17081,7 +17071,7 @@
     <row r="11" spans="2:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B11" s="442"/>
       <c r="C11" s="447" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D11" s="98">
         <f>share_steel_blast_furnace_bof</f>
@@ -17095,7 +17085,7 @@
     <row r="12" spans="2:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B12" s="442"/>
       <c r="C12" s="447" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D12" s="98">
         <f>share_steel_cyclone_furnace_bof</f>
@@ -17109,7 +17099,7 @@
     <row r="13" spans="2:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B13" s="442"/>
       <c r="C13" s="447" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D13" s="98">
         <f>share_steel_scrap_hbi_eaf</f>
@@ -17123,7 +17113,7 @@
     <row r="14" spans="2:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B14" s="442"/>
       <c r="C14" s="447" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D14" s="98">
         <f>share_steel_dri_network_gas_eaf</f>
@@ -17137,7 +17127,7 @@
     <row r="15" spans="2:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B15" s="442"/>
       <c r="C15" s="447" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D15" s="98">
         <f>share_steel_dri_hydrogen_eaf</f>
@@ -17415,7 +17405,7 @@
       </c>
       <c r="L10" s="106"/>
       <c r="M10" s="678" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="N10" s="106"/>
       <c r="O10" s="106"/>
@@ -17424,7 +17414,7 @@
       <c r="R10" s="106"/>
       <c r="S10" s="106"/>
       <c r="T10" s="680" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="U10" s="117" t="s">
         <v>459</v>
@@ -17542,7 +17532,7 @@
     <row r="13" spans="2:26" ht="17" x14ac:dyDescent="0.2">
       <c r="B13" s="442"/>
       <c r="C13" s="447" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D13" s="226">
         <f>IFERROR('Steel and alu demand'!G12/'Steel and alu demand'!$F$12,0.056)</f>
@@ -17637,7 +17627,7 @@
     <row r="14" spans="2:26" ht="17" x14ac:dyDescent="0.2">
       <c r="B14" s="442"/>
       <c r="C14" s="447" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D14" s="226">
         <f>IFERROR('Steel and alu demand'!G14/'Steel and alu demand'!$F$14,1-G14-J14)</f>
@@ -18105,7 +18095,7 @@
     </row>
     <row r="11" spans="2:15" s="222" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B11" s="494" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C11" s="497"/>
       <c r="D11" s="319"/>
@@ -18187,7 +18177,7 @@
     </row>
     <row r="14" spans="2:15" s="137" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B14" s="144" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C14" s="491"/>
       <c r="D14" s="328"/>
@@ -18516,7 +18506,7 @@
       <c r="B8" s="93"/>
       <c r="C8" s="455"/>
       <c r="D8" s="106" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E8" s="106"/>
       <c r="F8" s="106"/>
@@ -18525,7 +18515,7 @@
       <c r="I8" s="106"/>
       <c r="J8" s="106"/>
       <c r="K8" s="678" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="L8" s="117" t="s">
         <v>459</v>
@@ -19131,7 +19121,7 @@
         <v>41534</v>
       </c>
       <c r="C43" s="189" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D43" s="211">
         <v>1.37</v>
@@ -19219,7 +19209,7 @@
         <v>41618</v>
       </c>
       <c r="C51" s="189" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D51" s="211">
         <v>1.43</v>
@@ -19230,7 +19220,7 @@
         <v>41689</v>
       </c>
       <c r="C52" s="189" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D52" s="211">
         <v>1.44</v>
@@ -19241,7 +19231,7 @@
         <v>41690</v>
       </c>
       <c r="C53" s="189" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D53" s="211">
         <v>1.45</v>
@@ -19252,7 +19242,7 @@
         <v>41695</v>
       </c>
       <c r="C54" s="189" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D54" s="211">
         <v>1.46</v>
@@ -19260,10 +19250,10 @@
     </row>
     <row r="55" spans="2:4" ht="153" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="187" t="s">
+        <v>546</v>
+      </c>
+      <c r="C55" s="189" t="s">
         <v>547</v>
-      </c>
-      <c r="C55" s="189" t="s">
-        <v>548</v>
       </c>
       <c r="D55" s="211">
         <v>1.47</v>
@@ -19274,7 +19264,7 @@
         <v>44369</v>
       </c>
       <c r="C56" s="189" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D56" s="211">
         <v>1.48</v>
@@ -19812,7 +19802,7 @@
     </row>
     <row r="22" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="B22" s="146" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C22" s="266"/>
       <c r="D22" s="354">
@@ -20039,7 +20029,7 @@
     <row r="11" spans="2:13" ht="17" x14ac:dyDescent="0.2">
       <c r="B11" s="234"/>
       <c r="C11" s="675" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D11" s="243"/>
       <c r="E11" s="676" t="s">
@@ -20074,7 +20064,7 @@
     <row r="12" spans="2:13" ht="17" x14ac:dyDescent="0.2">
       <c r="B12" s="234"/>
       <c r="C12" s="675" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D12" s="243"/>
       <c r="E12" s="676" t="s">
@@ -21065,7 +21055,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="221" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B3" s="498">
         <f>IFERROR('Shares per carrier per sector'!E11,0)</f>
@@ -21074,7 +21064,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B4" s="498">
         <f>IFERROR('Shares per carrier per sector'!E12,)</f>
@@ -21083,7 +21073,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B5" s="498">
         <f>1-B4-B3</f>
@@ -21141,7 +21131,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -21154,7 +21144,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="221" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B3" s="498">
         <f>IFERROR('Shares per carrier per sector'!E19,0)</f>
@@ -21163,7 +21153,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B4" s="498">
         <f>1-B3</f>
@@ -21211,7 +21201,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="221" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B3" s="498">
         <f>IFERROR('Shares per carrier per sector'!E26,0)</f>
@@ -21220,7 +21210,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B4" s="498">
         <f>IFERROR('Shares per carrier per sector'!E27,0)</f>
@@ -21229,7 +21219,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B5" s="498">
         <f>1-B4-B3</f>
@@ -21267,7 +21257,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -21280,7 +21270,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="221" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B3" s="498">
         <f>IFERROR('Shares per carrier per sector'!E34,0)</f>
@@ -21289,7 +21279,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B4" s="498">
         <f>1-B3</f>
@@ -21338,7 +21328,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="221" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B3" s="498">
         <f>IFERROR('Shares per carrier per sector'!E38,0)</f>
@@ -21347,7 +21337,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B4" s="498">
         <f>1-B3</f>
@@ -21384,7 +21374,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -21397,7 +21387,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="221" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B3" s="499">
         <f>1-B4</f>
@@ -21406,7 +21396,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B4" s="499">
         <f>IFERROR('Shares per carrier steel'!E13,0)</f>
@@ -21464,7 +21454,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -21477,7 +21467,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="221" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B3" s="499">
         <f>IFERROR('Shares per carrier steel'!E22,1)</f>
@@ -21486,7 +21476,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B4" s="499">
         <f>IFERROR('Shares per carrier steel'!E24, 0)</f>
@@ -21651,7 +21641,7 @@
         <v>271</v>
       </c>
       <c r="C17" s="272" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="18" spans="2:3" s="81" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
@@ -21768,50 +21758,50 @@
     </row>
     <row r="32" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="136" t="s">
+        <v>528</v>
+      </c>
+      <c r="C32" s="269" t="s">
         <v>529</v>
-      </c>
-      <c r="C32" s="269" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="33" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="136" t="s">
+        <v>530</v>
+      </c>
+      <c r="C33" s="269" t="s">
         <v>531</v>
-      </c>
-      <c r="C33" s="269" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="34" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="136" t="s">
+        <v>532</v>
+      </c>
+      <c r="C34" s="269" t="s">
         <v>533</v>
-      </c>
-      <c r="C34" s="269" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="35" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="136" t="s">
+        <v>534</v>
+      </c>
+      <c r="C35" s="269" t="s">
         <v>535</v>
-      </c>
-      <c r="C35" s="269" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="36" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="275" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C36" s="276" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="37" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="275" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C37" s="276" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="38" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
@@ -21819,7 +21809,7 @@
         <v>494</v>
       </c>
       <c r="C38" s="276" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
   </sheetData>
@@ -21852,7 +21842,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -21865,7 +21855,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="221" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B3" s="499">
         <f>1-B4</f>
@@ -21874,7 +21864,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B4" s="499">
         <f>IFERROR('Shares per carrier steel'!E37,0)</f>
@@ -21929,7 +21919,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="221" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -22103,7 +22093,7 @@
   </sheetPr>
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -22182,7 +22172,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -22197,7 +22187,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B3" s="498">
         <f>'Shares coal gas distribution'!E18</f>
@@ -22207,7 +22197,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B4" s="498">
         <f>'Shares coal gas distribution'!E17</f>
@@ -22216,7 +22206,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B5" s="498">
         <f>1-SUM(B3:B4)</f>
@@ -22250,7 +22240,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -22265,7 +22255,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="B3" s="498">
         <f>'Shares coal gas distribution'!E12</f>
@@ -22275,7 +22265,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B4" s="498">
         <f>1-B3</f>
@@ -22316,7 +22306,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="221" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -22365,7 +22355,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="661" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B7" s="181">
         <f>'Steel and alu eff'!G13</f>
@@ -22374,7 +22364,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="661" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B8" s="181">
         <f>'Steel and alu eff'!H13</f>
@@ -22383,7 +22373,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="661" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B9" s="181">
         <f>'Steel and alu eff'!I13</f>
@@ -22437,7 +22427,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="221" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -22468,7 +22458,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="661" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B5" s="181">
         <f>'Steel and alu eff'!G14</f>
@@ -22525,7 +22515,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="221" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -22538,7 +22528,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="661" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="B3" s="181" t="e">
         <f>'Shares per carrier aluminium'!E11</f>
@@ -22547,7 +22537,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="661" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="B4" s="181" t="e">
         <f>'Shares per carrier aluminium'!E12</f>
@@ -22556,7 +22546,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="661" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="B5" s="181" t="e">
         <f>'Shares per carrier aluminium'!E13</f>
@@ -22565,7 +22555,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="661" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="B6" s="181" t="e">
         <f>'Shares per carrier aluminium'!E14</f>
@@ -22608,7 +22598,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -22621,7 +22611,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="661" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="B3" s="181" t="e">
         <f>'Shares per carrier aluminium'!E17</f>
@@ -22630,7 +22620,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="661" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="B4" s="181" t="e">
         <f>'Shares per carrier aluminium'!E18</f>
@@ -22639,7 +22629,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="661" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="B5" s="181" t="e">
         <f>'Shares per carrier aluminium'!E19</f>
@@ -22648,7 +22638,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="661" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="B6" s="181" t="e">
         <f>'Shares per carrier aluminium'!E20</f>
@@ -22681,7 +22671,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="221" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -22703,7 +22693,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="661" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B4" s="181">
         <f>IFERROR('Final demand'!G21/SUM('Final demand'!C21,'Final demand'!F21,'Final demand'!G21),0)</f>
@@ -22712,7 +22702,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="661" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B5" s="181">
         <f>1-B4-B3</f>
@@ -22866,7 +22856,7 @@
   <sheetData>
     <row r="2" spans="2:80" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="55" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C2" s="52"/>
       <c r="D2" s="52"/>
@@ -23507,7 +23497,7 @@
     <row r="28" spans="2:4" ht="17" x14ac:dyDescent="0.2">
       <c r="B28" s="606"/>
       <c r="C28" s="602" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D28" s="609" t="s">
         <v>298</v>
@@ -24175,7 +24165,7 @@
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B5" s="695" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C5" s="696"/>
       <c r="D5" s="696"/>
@@ -24307,7 +24297,7 @@
       </c>
       <c r="D13" s="284"/>
       <c r="E13" s="290" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="F13" s="290"/>
       <c r="G13" s="19" t="s">
@@ -24450,7 +24440,7 @@
     <row r="19" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="27"/>
       <c r="C19" s="401" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D19" s="285"/>
       <c r="E19" s="292">
@@ -24459,7 +24449,7 @@
       </c>
       <c r="F19" s="283"/>
       <c r="G19" s="405" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H19" s="8"/>
       <c r="I19" s="20"/>
@@ -24476,7 +24466,7 @@
       </c>
       <c r="N19" s="8"/>
       <c r="O19" s="410" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="P19" s="7">
         <f>IF(L19=TRUE,1,0)</f>
@@ -24486,7 +24476,7 @@
     <row r="20" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="27"/>
       <c r="C20" s="401" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D20" s="285"/>
       <c r="E20" s="292">
@@ -24494,7 +24484,7 @@
       </c>
       <c r="F20" s="283"/>
       <c r="G20" s="405" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
@@ -24504,20 +24494,20 @@
       <c r="M20" s="28"/>
       <c r="N20" s="8"/>
       <c r="O20" s="410" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="P20" s="411"/>
     </row>
     <row r="21" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="27"/>
       <c r="C21" s="401" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D21" s="285"/>
       <c r="E21" s="662"/>
       <c r="F21" s="283"/>
       <c r="G21" s="405" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H21" s="8"/>
       <c r="I21" s="20"/>
@@ -24527,14 +24517,14 @@
       <c r="M21" s="560"/>
       <c r="N21" s="289"/>
       <c r="O21" s="410" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="P21" s="411"/>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B22" s="27"/>
       <c r="C22" s="401" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D22" s="285"/>
       <c r="E22" s="292">
@@ -24542,7 +24532,7 @@
       </c>
       <c r="F22" s="283"/>
       <c r="G22" s="405" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
@@ -24552,14 +24542,14 @@
       <c r="M22" s="560"/>
       <c r="N22" s="289"/>
       <c r="O22" s="410" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="P22" s="411"/>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B23" s="27"/>
       <c r="C23" s="401" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D23" s="285"/>
       <c r="E23" s="292">
@@ -24567,7 +24557,7 @@
       </c>
       <c r="F23" s="283"/>
       <c r="G23" s="405" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
@@ -24577,7 +24567,7 @@
       <c r="M23" s="559"/>
       <c r="N23" s="8"/>
       <c r="O23" s="410" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="P23" s="411"/>
     </row>
@@ -24616,13 +24606,13 @@
     <row r="26" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B26" s="32"/>
       <c r="C26" s="8" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D26" s="285"/>
       <c r="E26" s="664"/>
       <c r="F26" s="283"/>
       <c r="G26" s="405" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H26" s="8"/>
       <c r="I26" s="20"/>
@@ -24640,7 +24630,7 @@
       </c>
       <c r="N26" s="8"/>
       <c r="O26" s="410" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="P26" s="7">
         <f>IF(L26=TRUE,1,0)</f>
@@ -24650,7 +24640,7 @@
     <row r="27" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B27" s="32"/>
       <c r="C27" s="8" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D27" s="285"/>
       <c r="E27" s="666">
@@ -24659,7 +24649,7 @@
       </c>
       <c r="F27" s="283"/>
       <c r="G27" s="405" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H27" s="8"/>
       <c r="I27" s="8"/>
@@ -24691,13 +24681,13 @@
     <row r="29" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="27"/>
       <c r="C29" s="8" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D29" s="285"/>
       <c r="E29" s="664"/>
       <c r="F29" s="398"/>
       <c r="G29" s="405" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H29" s="8"/>
       <c r="I29" s="20"/>
@@ -24712,7 +24702,7 @@
       <c r="M29" s="558"/>
       <c r="N29" s="8"/>
       <c r="O29" s="410" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="P29" s="7">
         <v>1</v>
@@ -24721,7 +24711,7 @@
     <row r="30" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B30" s="27"/>
       <c r="C30" s="8" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D30" s="285"/>
       <c r="E30" s="666">
@@ -24730,7 +24720,7 @@
       </c>
       <c r="F30" s="398"/>
       <c r="G30" s="405" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H30" s="8"/>
       <c r="I30" s="8"/>
@@ -24762,13 +24752,13 @@
     <row r="32" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B32" s="27"/>
       <c r="C32" s="8" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D32" s="285"/>
       <c r="E32" s="667"/>
       <c r="F32" s="283"/>
       <c r="G32" s="405" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="H32" s="8"/>
       <c r="I32" s="20"/>
@@ -24783,7 +24773,7 @@
       <c r="M32" s="559"/>
       <c r="N32" s="8"/>
       <c r="O32" s="410" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="P32" s="411">
         <v>1</v>
@@ -24792,7 +24782,7 @@
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B33" s="27"/>
       <c r="C33" s="8" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D33" s="285"/>
       <c r="E33" s="665">
@@ -24801,7 +24791,7 @@
       </c>
       <c r="F33" s="283"/>
       <c r="G33" s="405" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H33" s="8"/>
       <c r="I33" s="8"/>
@@ -24832,7 +24822,7 @@
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B35" s="32" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C35" s="401"/>
       <c r="D35" s="285"/>
@@ -24869,10 +24859,10 @@
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B37" s="32"/>
       <c r="C37" s="401" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D37" s="285" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E37" s="206" t="e">
         <f>'Steel and alu demand'!E12</f>
@@ -24893,10 +24883,10 @@
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B38" s="32"/>
       <c r="C38" s="401" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D38" s="285" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E38" s="206" t="e">
         <f>'Steel and alu demand'!E14</f>
@@ -24954,7 +24944,7 @@
       <c r="A41" s="8"/>
       <c r="B41" s="32"/>
       <c r="C41" s="8" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D41" s="285" t="s">
         <v>324</v>
@@ -25011,7 +25001,7 @@
       <c r="A43" s="8"/>
       <c r="B43" s="27"/>
       <c r="C43" s="8" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D43" s="285" t="s">
         <v>324</v>
@@ -25069,7 +25059,7 @@
       <c r="A45" s="8"/>
       <c r="B45" s="27"/>
       <c r="C45" s="8" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D45" s="285" t="s">
         <v>324</v>
@@ -25127,7 +25117,7 @@
       <c r="A47" s="8"/>
       <c r="B47" s="27"/>
       <c r="C47" s="8" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D47" s="285" t="s">
         <v>324</v>
@@ -25185,7 +25175,7 @@
       <c r="A49" s="8"/>
       <c r="B49" s="27"/>
       <c r="C49" s="8" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D49" s="285" t="s">
         <v>324</v>
@@ -25425,7 +25415,7 @@
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B59" s="32" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C59" s="8"/>
       <c r="D59" s="285"/>
@@ -32745,7 +32735,7 @@
   </sheetPr>
   <dimension ref="B2:S77"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
       <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
@@ -32784,7 +32774,7 @@
     </row>
     <row r="5" spans="2:19" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="701" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C5" s="702"/>
       <c r="D5" s="702"/>
@@ -32824,7 +32814,7 @@
       <c r="P7" s="524"/>
       <c r="Q7" s="524"/>
       <c r="R7" s="569" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="S7" s="527" t="s">
         <v>489</v>
@@ -32890,7 +32880,7 @@
         <v>407</v>
       </c>
       <c r="P9" s="533" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="Q9" s="582" t="s">
         <v>485</v>
@@ -32942,7 +32932,7 @@
     </row>
     <row r="12" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="89" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C12" s="90" t="s">
         <v>231</v>
@@ -33179,7 +33169,7 @@
         <v>231</v>
       </c>
       <c r="C22" s="421" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D22" s="425" t="s">
         <v>404</v>
@@ -33202,7 +33192,7 @@
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B23" s="36" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C23" s="92"/>
       <c r="D23" s="508"/>
@@ -33225,12 +33215,10 @@
     <row r="24" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B24" s="36"/>
       <c r="C24" s="418" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D24" s="374"/>
-      <c r="E24" s="418" t="s">
-        <v>641</v>
-      </c>
+      <c r="E24" s="418"/>
       <c r="F24" s="418"/>
       <c r="G24" s="418"/>
       <c r="H24" s="418"/>
@@ -33249,7 +33237,7 @@
     <row r="25" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B25" s="36"/>
       <c r="C25" s="577" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D25" s="553" t="e">
         <f t="shared" ref="D25:D26" si="0">S25</f>
@@ -33279,7 +33267,7 @@
     <row r="26" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B26" s="36"/>
       <c r="C26" s="577" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D26" s="553" t="e">
         <f t="shared" si="0"/>
@@ -33309,7 +33297,7 @@
     <row r="27" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B27" s="36"/>
       <c r="C27" s="577" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D27" s="553" t="e">
         <f>S27</f>
@@ -33339,7 +33327,7 @@
     <row r="28" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B28" s="36"/>
       <c r="C28" s="577" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D28" s="553" t="e">
         <f t="shared" ref="D28:D30" si="1">S28</f>
@@ -33369,7 +33357,7 @@
     <row r="29" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B29" s="36"/>
       <c r="C29" s="577" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D29" s="553" t="e">
         <f t="shared" si="1"/>
@@ -33462,9 +33450,7 @@
         <v>208</v>
       </c>
       <c r="D32" s="509"/>
-      <c r="E32" s="528" t="s">
-        <v>644</v>
-      </c>
+      <c r="E32" s="528"/>
       <c r="F32" s="418"/>
       <c r="G32" s="418"/>
       <c r="H32" s="418"/>
@@ -33483,7 +33469,7 @@
     <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B33" s="36"/>
       <c r="C33" s="577" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D33" s="509" t="e">
         <f>S33</f>
@@ -33513,7 +33499,7 @@
     <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B34" s="36"/>
       <c r="C34" s="577" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D34" s="509" t="e">
         <f>S34</f>
@@ -33543,7 +33529,7 @@
     <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B35" s="36"/>
       <c r="C35" s="577" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D35" s="509" t="e">
         <f>S35</f>
@@ -33667,7 +33653,7 @@
         <v>231</v>
       </c>
       <c r="C40" s="421" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D40" s="427" t="s">
         <v>452</v>
@@ -33713,12 +33699,10 @@
     <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B42" s="36"/>
       <c r="C42" s="418" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D42" s="652"/>
-      <c r="E42" s="418" t="s">
-        <v>642</v>
-      </c>
+      <c r="E42" s="418"/>
       <c r="F42" s="418"/>
       <c r="G42" s="418"/>
       <c r="H42" s="418"/>
@@ -33737,7 +33721,7 @@
     <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B43" s="36"/>
       <c r="C43" s="577" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D43" s="553" t="e">
         <f t="shared" ref="D43:D44" si="2">S43</f>
@@ -33767,7 +33751,7 @@
     <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B44" s="36"/>
       <c r="C44" s="577" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D44" s="553" t="e">
         <f t="shared" si="2"/>
@@ -33797,7 +33781,7 @@
     <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B45" s="93"/>
       <c r="C45" s="577" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D45" s="553" t="e">
         <f>S45</f>
@@ -33827,7 +33811,7 @@
     <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B46" s="93"/>
       <c r="C46" s="577" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D46" s="553" t="e">
         <f t="shared" ref="D46:D48" si="3">S46</f>
@@ -33857,7 +33841,7 @@
     <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B47" s="93"/>
       <c r="C47" s="577" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D47" s="553" t="e">
         <f t="shared" si="3"/>
@@ -33950,9 +33934,7 @@
         <v>208</v>
       </c>
       <c r="D50" s="553"/>
-      <c r="E50" s="418" t="s">
-        <v>503</v>
-      </c>
+      <c r="E50" s="418"/>
       <c r="F50" s="418"/>
       <c r="G50" s="418"/>
       <c r="H50" s="418"/>
@@ -33971,7 +33953,7 @@
     <row r="51" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B51" s="93"/>
       <c r="C51" s="577" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D51" s="553" t="e">
         <f>S51</f>
@@ -34001,7 +33983,7 @@
     <row r="52" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B52" s="93"/>
       <c r="C52" s="577" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D52" s="553" t="e">
         <f>S52</f>
@@ -34031,7 +34013,7 @@
     <row r="53" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B53" s="93"/>
       <c r="C53" s="577" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D53" s="553" t="e">
         <f>S53</f>
@@ -34125,7 +34107,7 @@
         <v>231</v>
       </c>
       <c r="C57" s="421" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D57" s="511" t="s">
         <v>404</v>
@@ -34175,7 +34157,7 @@
       </c>
       <c r="D59" s="585"/>
       <c r="E59" s="528" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F59" s="418"/>
       <c r="G59" s="418"/>
@@ -34301,7 +34283,7 @@
       </c>
       <c r="D64" s="585"/>
       <c r="E64" s="528" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F64" s="418"/>
       <c r="G64" s="418"/>
@@ -34427,7 +34409,7 @@
       </c>
       <c r="D69" s="585"/>
       <c r="E69" s="528" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F69" s="418"/>
       <c r="G69" s="418"/>
@@ -34553,7 +34535,7 @@
       </c>
       <c r="D74" s="585"/>
       <c r="E74" s="528" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F74" s="418"/>
       <c r="G74" s="418"/>
